--- a/capiq_data/in_process_data/IQ296568.xlsx
+++ b/capiq_data/in_process_data/IQ296568.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C98B25-0758-48D9-8A59-52A83AED56A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FFBE05-7BB3-4344-A0C7-F720285232D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"7ed54847-a4e4-4b32-9249-88df94a37fe2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a9a9f963-2b0c-49cd-8d6d-3fc1f17e0b25"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40482</v>
+        <v>36828</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>99.847999999999999</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="D2">
-        <v>1516.4190000000001</v>
+        <v>443.37400000000002</v>
       </c>
       <c r="E2">
-        <v>541.55399999999997</v>
+        <v>165.18299999999999</v>
       </c>
       <c r="F2">
-        <v>793.46699999999998</v>
+        <v>149.732</v>
       </c>
       <c r="G2">
-        <v>1914.579</v>
+        <v>501.84100000000001</v>
       </c>
       <c r="H2">
-        <v>6889.5389999999998</v>
+        <v>767.69500000000005</v>
       </c>
       <c r="I2">
-        <v>307.74299999999999</v>
+        <v>38.722999999999999</v>
       </c>
       <c r="J2">
-        <v>2523.9160000000002</v>
+        <v>248.834</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>855.95799999999997</v>
+        <v>189.102</v>
       </c>
       <c r="O2">
-        <v>4474.3810000000003</v>
+        <v>505.47800000000001</v>
       </c>
       <c r="P2">
-        <v>2523.9160000000002</v>
+        <v>288.834</v>
       </c>
       <c r="Q2">
-        <v>16.097000000000001</v>
+        <v>-20.960999999999999</v>
       </c>
       <c r="R2">
-        <v>40482</v>
+        <v>36828</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2415.1579999999999</v>
+        <v>262.21699999999998</v>
       </c>
       <c r="U2">
-        <v>491.43700000000001</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="V2">
-        <v>43.908999999999999</v>
+        <v>-23.538</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.024</v>
       </c>
       <c r="X2">
-        <v>5.6719999999999997</v>
+        <v>9.0180000000000007</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>99.847999999999999</v>
+        <v>19.440000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40573</v>
+        <v>36926</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>52.194000000000003</v>
+        <v>6.5620000000000003</v>
       </c>
       <c r="D3">
-        <v>1398.117</v>
+        <v>374.03199999999998</v>
       </c>
       <c r="E3">
-        <v>433.9</v>
+        <v>99.438999999999993</v>
       </c>
       <c r="F3">
-        <v>738.79300000000001</v>
+        <v>133.29599999999999</v>
       </c>
       <c r="G3">
-        <v>1835.289</v>
+        <v>436.38099999999997</v>
       </c>
       <c r="H3">
-        <v>6784.35</v>
+        <v>724.36400000000003</v>
       </c>
       <c r="I3">
-        <v>335.48200000000003</v>
+        <v>45.715000000000003</v>
       </c>
       <c r="J3">
-        <v>2364.002</v>
+        <v>248.851</v>
       </c>
       <c r="K3">
-        <v>4.8680000000000003</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,164 +975,164 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>931.255</v>
+        <v>138.095</v>
       </c>
       <c r="O3">
-        <v>4341.8059999999996</v>
+        <v>455.803</v>
       </c>
       <c r="P3">
-        <v>2393.761</v>
+        <v>248.851</v>
       </c>
       <c r="Q3">
-        <v>7.2809999999999997</v>
+        <v>18.068000000000001</v>
       </c>
       <c r="R3">
-        <v>40573</v>
+        <v>36926</v>
       </c>
       <c r="S3">
-        <v>10500</v>
+        <v>6600</v>
       </c>
       <c r="T3">
-        <v>2442.5439999999999</v>
+        <v>268.56099999999998</v>
       </c>
       <c r="U3">
-        <v>498.71800000000002</v>
+        <v>20.222999999999999</v>
       </c>
       <c r="V3">
-        <v>218.33099999999999</v>
+        <v>90.63</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.024</v>
       </c>
       <c r="X3">
-        <v>-146.065</v>
+        <v>-40.219000000000001</v>
       </c>
       <c r="Y3">
-        <v>24.890999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>52.194000000000003</v>
+        <v>6.5620000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40664</v>
+        <v>37017</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>57.667000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D4">
-        <v>1369.184</v>
+        <v>366.923</v>
       </c>
       <c r="E4">
-        <v>502.416</v>
+        <v>138.02500000000001</v>
       </c>
       <c r="F4">
-        <v>728.57899999999995</v>
+        <v>121.43300000000001</v>
       </c>
       <c r="G4">
-        <v>1658.3440000000001</v>
+        <v>453.54300000000001</v>
       </c>
       <c r="H4">
-        <v>6834.0519999999997</v>
+        <v>746.57799999999997</v>
       </c>
       <c r="I4">
-        <v>262.22500000000002</v>
+        <v>37.820999999999998</v>
       </c>
       <c r="J4">
-        <v>2208.1909999999998</v>
+        <v>248.869</v>
       </c>
       <c r="K4">
-        <v>12.276999999999999</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-211.779</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="N4">
-        <v>856.54</v>
+        <v>158.27699999999999</v>
       </c>
       <c r="O4">
-        <v>4163.0630000000001</v>
+        <v>478.06299999999999</v>
       </c>
       <c r="P4">
-        <v>2266.7660000000001</v>
+        <v>288.56900000000002</v>
       </c>
       <c r="Q4">
-        <v>-203.76</v>
+        <v>-18.486999999999998</v>
       </c>
       <c r="R4">
-        <v>40664</v>
+        <v>37017</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2670.989</v>
+        <v>268.51499999999999</v>
       </c>
       <c r="U4">
-        <v>294.95800000000003</v>
+        <v>1.736</v>
       </c>
       <c r="V4">
-        <v>-9.5190000000000001</v>
+        <v>-45.970999999999997</v>
       </c>
       <c r="W4">
-        <v>-5.4139999999999997</v>
+        <v>-2.06</v>
       </c>
       <c r="X4">
-        <v>-151.626</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-10.35</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>57.667000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40755</v>
+        <v>37108</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>66.728999999999999</v>
+        <v>6.9740000000000002</v>
       </c>
       <c r="D5">
-        <v>1334.444</v>
+        <v>334.37799999999999</v>
       </c>
       <c r="E5">
-        <v>402.73599999999999</v>
+        <v>102.163</v>
       </c>
       <c r="F5">
-        <v>724.13199999999995</v>
+        <v>120.059</v>
       </c>
       <c r="G5">
-        <v>1740.8420000000001</v>
+        <v>450.2</v>
       </c>
       <c r="H5">
-        <v>6870.1490000000003</v>
+        <v>742.65099999999995</v>
       </c>
       <c r="I5">
-        <v>351.74799999999999</v>
+        <v>40.774000000000001</v>
       </c>
       <c r="J5">
-        <v>2090.0619999999999</v>
+        <v>248.887</v>
       </c>
       <c r="K5">
-        <v>13.006</v>
+        <v>28.4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>972.19200000000001</v>
+        <v>146.464</v>
       </c>
       <c r="O5">
-        <v>4158.9440000000004</v>
+        <v>466.86</v>
       </c>
       <c r="P5">
-        <v>2154.884</v>
+        <v>277.28699999999998</v>
       </c>
       <c r="Q5">
-        <v>-7.2670000000000003</v>
+        <v>-0.18099999999999999</v>
       </c>
       <c r="R5">
-        <v>40755</v>
+        <v>37108</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2711.2049999999999</v>
+        <v>275.791</v>
       </c>
       <c r="U5">
-        <v>287.69099999999997</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="V5">
-        <v>150.50800000000001</v>
+        <v>19.265999999999998</v>
       </c>
       <c r="W5">
-        <v>-0.02</v>
+        <v>-1.042</v>
       </c>
       <c r="X5">
-        <v>-98.394999999999996</v>
+        <v>-10.997999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>66.728999999999999</v>
+        <v>6.9740000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40846</v>
+        <v>37199</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>112.239</v>
+        <v>12.606999999999999</v>
       </c>
       <c r="D6">
-        <v>1654.16</v>
+        <v>405.00200000000001</v>
       </c>
       <c r="E6">
-        <v>609.55200000000002</v>
+        <v>146.32599999999999</v>
       </c>
       <c r="F6">
-        <v>828.96799999999996</v>
+        <v>143.75399999999999</v>
       </c>
       <c r="G6">
-        <v>1774.04</v>
+        <v>456.06200000000001</v>
       </c>
       <c r="H6">
-        <v>6896.3649999999998</v>
+        <v>743.62900000000002</v>
       </c>
       <c r="I6">
-        <v>298.43099999999998</v>
+        <v>32.856999999999999</v>
       </c>
       <c r="J6">
-        <v>2030.4449999999999</v>
+        <v>248.917</v>
       </c>
       <c r="K6">
-        <v>12.82</v>
+        <v>28.4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>983.67600000000004</v>
+        <v>135.31</v>
       </c>
       <c r="O6">
-        <v>4121.4719999999998</v>
+        <v>456.22199999999998</v>
       </c>
       <c r="P6">
-        <v>2104.3760000000002</v>
+        <v>277.31700000000001</v>
       </c>
       <c r="Q6">
-        <v>-127.71</v>
+        <v>-0.96199999999999997</v>
       </c>
       <c r="R6">
-        <v>40846</v>
+        <v>37199</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2774.893</v>
+        <v>287.40699999999998</v>
       </c>
       <c r="U6">
-        <v>159.98099999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="V6">
-        <v>32.350999999999999</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="W6">
-        <v>-2.7189999999999999</v>
+        <v>-1.0349999999999999</v>
       </c>
       <c r="X6">
-        <v>-43.15</v>
+        <v>-0.99099999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-33.85</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>112.239</v>
+        <v>12.606999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40937</v>
+        <v>37290</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>39.061999999999998</v>
+        <v>-9.4649999999999999</v>
       </c>
       <c r="D7">
-        <v>1532.836</v>
+        <v>325.589</v>
       </c>
       <c r="E7">
-        <v>467.62799999999999</v>
+        <v>81.551000000000002</v>
       </c>
       <c r="F7">
-        <v>781.83699999999999</v>
+        <v>126.384</v>
       </c>
       <c r="G7">
-        <v>1739.2349999999999</v>
+        <v>405.3</v>
       </c>
       <c r="H7">
-        <v>6752.3609999999999</v>
+        <v>708.93299999999999</v>
       </c>
       <c r="I7">
-        <v>366.13799999999998</v>
+        <v>29.375</v>
       </c>
       <c r="J7">
-        <v>1832.925</v>
+        <v>248.935</v>
       </c>
       <c r="K7">
-        <v>13.04</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,164 +1307,164 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1043.8710000000001</v>
+        <v>114.358</v>
       </c>
       <c r="O7">
-        <v>4036.9119999999998</v>
+        <v>443.20600000000002</v>
       </c>
       <c r="P7">
-        <v>1942.6690000000001</v>
+        <v>248.935</v>
       </c>
       <c r="Q7">
-        <v>73.215999999999994</v>
+        <v>42.985999999999997</v>
       </c>
       <c r="R7">
-        <v>40937</v>
+        <v>37290</v>
       </c>
       <c r="S7">
-        <v>10900</v>
+        <v>5200</v>
       </c>
       <c r="T7">
-        <v>2715.4490000000001</v>
+        <v>265.72699999999998</v>
       </c>
       <c r="U7">
-        <v>233.197</v>
+        <v>43.579000000000001</v>
       </c>
       <c r="V7">
-        <v>317.38099999999997</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="W7">
-        <v>-2.7210000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-150.49</v>
+        <v>-28.391999999999999</v>
       </c>
       <c r="Y7">
-        <v>26.753</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>39.061999999999998</v>
+        <v>-9.4649999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41028</v>
+        <v>37381</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>95.475999999999999</v>
+        <v>-0.83099999999999996</v>
       </c>
       <c r="D8">
-        <v>1427.4059999999999</v>
+        <v>349.42099999999999</v>
       </c>
       <c r="E8">
-        <v>530.77099999999996</v>
+        <v>114.48699999999999</v>
       </c>
       <c r="F8">
-        <v>756.82899999999995</v>
+        <v>118.88</v>
       </c>
       <c r="G8">
-        <v>1727.953</v>
+        <v>410.86200000000002</v>
       </c>
       <c r="H8">
-        <v>6780.3969999999999</v>
+        <v>714.755</v>
       </c>
       <c r="I8">
-        <v>255.50700000000001</v>
+        <v>31.672000000000001</v>
       </c>
       <c r="J8">
-        <v>1794.8620000000001</v>
+        <v>248.95400000000001</v>
       </c>
       <c r="K8">
-        <v>107.393</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.64700000000000002</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-32.738999999999997</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>981.89300000000003</v>
+        <v>122.89100000000001</v>
       </c>
       <c r="O8">
-        <v>3951.0880000000002</v>
+        <v>451.024</v>
       </c>
       <c r="P8">
-        <v>2019.0319999999999</v>
+        <v>248.95400000000001</v>
       </c>
       <c r="Q8">
-        <v>5.415</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="R8">
-        <v>41028</v>
+        <v>37381</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2829.3090000000002</v>
+        <v>263.73099999999999</v>
       </c>
       <c r="U8">
-        <v>238.61199999999999</v>
+        <v>45.618000000000002</v>
       </c>
       <c r="V8">
-        <v>-0.50800000000000001</v>
+        <v>7.8369999999999997</v>
       </c>
       <c r="W8">
-        <v>-5.4829999999999997</v>
+        <v>-2.0760000000000001</v>
       </c>
       <c r="X8">
-        <v>56.598999999999997</v>
+        <v>-1.165</v>
       </c>
       <c r="Y8">
-        <v>37.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>95.475999999999999</v>
+        <v>-0.83099999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41119</v>
+        <v>37472</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>89.918000000000006</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="D9">
-        <v>1336.623</v>
+        <v>331.19200000000001</v>
       </c>
       <c r="E9">
-        <v>411.38099999999997</v>
+        <v>92.789000000000001</v>
       </c>
       <c r="F9">
-        <v>742.66099999999994</v>
+        <v>129.66</v>
       </c>
       <c r="G9">
-        <v>1819.9380000000001</v>
+        <v>436.78800000000001</v>
       </c>
       <c r="H9">
-        <v>6731.4880000000003</v>
+        <v>735.6</v>
       </c>
       <c r="I9">
-        <v>372.53100000000001</v>
+        <v>41.42</v>
       </c>
       <c r="J9">
-        <v>1715.4639999999999</v>
+        <v>248.97300000000001</v>
       </c>
       <c r="K9">
-        <v>52.790999999999997</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1109.393</v>
+        <v>133.81100000000001</v>
       </c>
       <c r="O9">
-        <v>3950.288</v>
+        <v>463.01600000000002</v>
       </c>
       <c r="P9">
-        <v>1891.6759999999999</v>
+        <v>248.97300000000001</v>
       </c>
       <c r="Q9">
-        <v>23.373999999999999</v>
+        <v>34.662999999999997</v>
       </c>
       <c r="R9">
-        <v>41119</v>
+        <v>37472</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2781.2</v>
+        <v>272.584</v>
       </c>
       <c r="U9">
-        <v>261.98599999999999</v>
+        <v>80.281000000000006</v>
       </c>
       <c r="V9">
-        <v>207.80600000000001</v>
+        <v>37.283000000000001</v>
       </c>
       <c r="W9">
-        <v>-7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-119.85599999999999</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="Y9">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>89.918000000000006</v>
+        <v>7.8529999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41210</v>
+        <v>37563</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>167.69800000000001</v>
+        <v>17.689</v>
       </c>
       <c r="D10">
-        <v>1642.77</v>
+        <v>409.10300000000001</v>
       </c>
       <c r="E10">
-        <v>587.60299999999995</v>
+        <v>136.77500000000001</v>
       </c>
       <c r="F10">
-        <v>869.08399999999995</v>
+        <v>150.5</v>
       </c>
       <c r="G10">
-        <v>1912.1189999999999</v>
+        <v>454.64</v>
       </c>
       <c r="H10">
-        <v>6985.9709999999995</v>
+        <v>749.75199999999995</v>
       </c>
       <c r="I10">
-        <v>300.46800000000002</v>
+        <v>41.72</v>
       </c>
       <c r="J10">
-        <v>1647.596</v>
+        <v>248.99299999999999</v>
       </c>
       <c r="K10">
-        <v>142.51400000000001</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1139.9659999999999</v>
+        <v>128.79499999999999</v>
       </c>
       <c r="O10">
-        <v>3939.3470000000002</v>
+        <v>461.55700000000002</v>
       </c>
       <c r="P10">
-        <v>1909.31</v>
+        <v>248.99299999999999</v>
       </c>
       <c r="Q10">
-        <v>14.644</v>
+        <v>-16.896000000000001</v>
       </c>
       <c r="R10">
-        <v>41210</v>
+        <v>37563</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3046.6239999999998</v>
+        <v>288.19499999999999</v>
       </c>
       <c r="U10">
-        <v>276.63</v>
+        <v>63.384999999999998</v>
       </c>
       <c r="V10">
-        <v>78.08</v>
+        <v>-7.609</v>
       </c>
       <c r="W10">
-        <v>-2.7469999999999999</v>
+        <v>-2.0870000000000002</v>
       </c>
       <c r="X10">
-        <v>10.007999999999999</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="Y10">
-        <v>35.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1.9</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>167.69800000000001</v>
+        <v>17.689</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41308</v>
+        <v>37654</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>80.748000000000005</v>
+        <v>5.726</v>
       </c>
       <c r="D11">
-        <v>1636.2</v>
+        <v>315.25700000000001</v>
       </c>
       <c r="E11">
-        <v>418.25099999999998</v>
+        <v>69.765000000000001</v>
       </c>
       <c r="F11">
-        <v>880.65599999999995</v>
+        <v>132.19</v>
       </c>
       <c r="G11">
-        <v>2437.0059999999999</v>
+        <v>451.12700000000001</v>
       </c>
       <c r="H11">
-        <v>7731.6869999999999</v>
+        <v>771.7</v>
       </c>
       <c r="I11">
-        <v>377.23099999999999</v>
+        <v>40.637999999999998</v>
       </c>
       <c r="J11">
-        <v>2211.6419999999998</v>
+        <v>249.012</v>
       </c>
       <c r="K11">
-        <v>10.847</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,164 +1639,164 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1162.4469999999999</v>
+        <v>127.43899999999999</v>
       </c>
       <c r="O11">
-        <v>4479.1180000000004</v>
+        <v>499.47300000000001</v>
       </c>
       <c r="P11">
-        <v>2341.549</v>
+        <v>249.012</v>
       </c>
       <c r="Q11">
-        <v>615.57899999999995</v>
+        <v>53.735999999999997</v>
       </c>
       <c r="R11">
-        <v>41308</v>
+        <v>37654</v>
       </c>
       <c r="S11">
-        <v>11800</v>
+        <v>5670</v>
       </c>
       <c r="T11">
-        <v>3252.569</v>
+        <v>272.22699999999998</v>
       </c>
       <c r="U11">
-        <v>892.20899999999995</v>
+        <v>117.121</v>
       </c>
       <c r="V11">
-        <v>284.15899999999999</v>
+        <v>67.716999999999999</v>
       </c>
       <c r="W11">
-        <v>-2.7480000000000002</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>438.06400000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Y11">
-        <v>31.06</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-6.4640000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>80.748000000000005</v>
+        <v>5.726</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41399</v>
+        <v>37745</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-10.3</v>
+        <v>-2.153</v>
       </c>
       <c r="D12">
-        <v>1910.2</v>
+        <v>379.49599999999998</v>
       </c>
       <c r="E12">
-        <v>771.50300000000004</v>
+        <v>134.57400000000001</v>
       </c>
       <c r="F12">
-        <v>951.9</v>
+        <v>157.43299999999999</v>
       </c>
       <c r="G12">
-        <v>3082.451</v>
+        <v>450.166</v>
       </c>
       <c r="H12">
-        <v>11607.284</v>
+        <v>1214.1030000000001</v>
       </c>
       <c r="I12">
-        <v>418.459</v>
+        <v>42.341000000000001</v>
       </c>
       <c r="J12">
-        <v>4362.3379999999997</v>
+        <v>374.03300000000002</v>
       </c>
       <c r="K12">
-        <v>14.724</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-23</v>
+        <v>-16.5</v>
       </c>
       <c r="M12">
-        <v>-1099.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1287.703</v>
+        <v>165.43100000000001</v>
       </c>
       <c r="O12">
-        <v>7487.8490000000002</v>
+        <v>665.52599999999995</v>
       </c>
       <c r="P12">
-        <v>4505.9120000000003</v>
+        <v>374.03300000000002</v>
       </c>
       <c r="Q12">
-        <v>-145.9</v>
+        <v>-97.554000000000002</v>
       </c>
       <c r="R12">
-        <v>41399</v>
+        <v>37745</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4119.4350000000004</v>
+        <v>548.577</v>
       </c>
       <c r="U12">
-        <v>746.28099999999995</v>
+        <v>19.567</v>
       </c>
       <c r="V12">
-        <v>-135.30000000000001</v>
+        <v>-53.747</v>
       </c>
       <c r="W12">
-        <v>-6.1</v>
+        <v>-2.274</v>
       </c>
       <c r="X12">
-        <v>1853.4</v>
+        <v>372.01900000000001</v>
       </c>
       <c r="Y12">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-10.3</v>
+        <v>-2.153</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41490</v>
+        <v>37836</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-5.4</v>
+        <v>8.9770000000000003</v>
       </c>
       <c r="D13">
-        <v>1964.8</v>
+        <v>379.37799999999999</v>
       </c>
       <c r="E13">
-        <v>712.05700000000002</v>
+        <v>126.383</v>
       </c>
       <c r="F13">
-        <v>1026.0999999999999</v>
+        <v>158.083</v>
       </c>
       <c r="G13">
-        <v>3080.645</v>
+        <v>513.05499999999995</v>
       </c>
       <c r="H13">
-        <v>11514.745999999999</v>
+        <v>1264.249</v>
       </c>
       <c r="I13">
-        <v>552.221</v>
+        <v>55.790999999999997</v>
       </c>
       <c r="J13">
-        <v>4195.1509999999998</v>
+        <v>399.05500000000001</v>
       </c>
       <c r="K13">
-        <v>3.4470000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1425.202</v>
+        <v>178.60900000000001</v>
       </c>
       <c r="O13">
-        <v>7461.3860000000004</v>
+        <v>706.70899999999995</v>
       </c>
       <c r="P13">
-        <v>4310.598</v>
+        <v>399.05500000000001</v>
       </c>
       <c r="Q13">
-        <v>-117.4</v>
+        <v>61.777000000000001</v>
       </c>
       <c r="R13">
-        <v>41490</v>
+        <v>37836</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4053.36</v>
+        <v>557.54</v>
       </c>
       <c r="U13">
-        <v>628.91999999999996</v>
+        <v>81.343999999999994</v>
       </c>
       <c r="V13">
-        <v>179</v>
+        <v>35.322000000000003</v>
       </c>
       <c r="W13">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-220.9</v>
+        <v>19.948</v>
       </c>
       <c r="Y13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>17.234000000000002</v>
       </c>
       <c r="AA13">
-        <v>-5.4</v>
+        <v>8.9770000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41581</v>
+        <v>37927</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>196.7</v>
+        <v>17.033999999999999</v>
       </c>
       <c r="D14">
-        <v>2259.1</v>
+        <v>453.59699999999998</v>
       </c>
       <c r="E14">
-        <v>880.16</v>
+        <v>184.02099999999999</v>
       </c>
       <c r="F14">
-        <v>1171.8</v>
+        <v>178.32499999999999</v>
       </c>
       <c r="G14">
-        <v>3064.953</v>
+        <v>543.04300000000001</v>
       </c>
       <c r="H14">
-        <v>11651.62</v>
+        <v>1492.63</v>
       </c>
       <c r="I14">
-        <v>435.91699999999997</v>
+        <v>52.917000000000002</v>
       </c>
       <c r="J14">
-        <v>4174.5519999999997</v>
+        <v>399.07600000000002</v>
       </c>
       <c r="K14">
-        <v>12.441000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1301.912</v>
+        <v>189.46</v>
       </c>
       <c r="O14">
-        <v>7310.4530000000004</v>
+        <v>918.93200000000002</v>
       </c>
       <c r="P14">
-        <v>4300.9930000000004</v>
+        <v>399.07600000000002</v>
       </c>
       <c r="Q14">
-        <v>-86.4</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="R14">
-        <v>41581</v>
+        <v>37927</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4341.1670000000004</v>
+        <v>573.69799999999998</v>
       </c>
       <c r="U14">
-        <v>542.53300000000002</v>
+        <v>82.087000000000003</v>
       </c>
       <c r="V14">
-        <v>-8.1999999999999993</v>
+        <v>6.883</v>
       </c>
       <c r="W14">
-        <v>-3.1</v>
+        <v>-2.2810000000000001</v>
       </c>
       <c r="X14">
-        <v>-10.7</v>
+        <v>-1.095</v>
       </c>
       <c r="Y14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>196.7</v>
+        <v>17.033999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41672</v>
+        <v>38018</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-37.5</v>
+        <v>-9.1519999999999992</v>
       </c>
       <c r="D15">
-        <v>2052.3000000000002</v>
+        <v>356.36500000000001</v>
       </c>
       <c r="E15">
-        <v>730.3</v>
+        <v>96.691000000000003</v>
       </c>
       <c r="F15">
-        <v>1104.5999999999999</v>
+        <v>150.518</v>
       </c>
       <c r="G15">
-        <v>2998.6</v>
+        <v>488.91199999999998</v>
       </c>
       <c r="H15">
-        <v>11575.6</v>
+        <v>1439.2829999999999</v>
       </c>
       <c r="I15">
-        <v>582.9</v>
+        <v>49.771999999999998</v>
       </c>
       <c r="J15">
-        <v>3878.2</v>
+        <v>399.09699999999998</v>
       </c>
       <c r="K15">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,164 +1971,164 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1552.4</v>
+        <v>182.864</v>
       </c>
       <c r="O15">
-        <v>7234.8</v>
+        <v>878.38</v>
       </c>
       <c r="P15">
-        <v>3995.3</v>
+        <v>399.09699999999998</v>
       </c>
       <c r="Q15">
-        <v>50.7</v>
+        <v>50.901000000000003</v>
       </c>
       <c r="R15">
-        <v>41672</v>
+        <v>38018</v>
       </c>
       <c r="S15">
-        <v>16700</v>
+        <v>5000</v>
       </c>
       <c r="T15">
-        <v>4340.8</v>
+        <v>560.90300000000002</v>
       </c>
       <c r="U15">
-        <v>593.20000000000005</v>
+        <v>132.988</v>
       </c>
       <c r="V15">
-        <v>376.4</v>
+        <v>67.765000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-267</v>
+        <v>2.028</v>
       </c>
       <c r="Y15">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-37.5</v>
+        <v>-9.1519999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41763</v>
+        <v>38109</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>35.299999999999997</v>
+        <v>1.593</v>
       </c>
       <c r="D16">
-        <v>1963.7</v>
+        <v>378.238</v>
       </c>
       <c r="E16">
-        <v>817.4</v>
+        <v>114.83199999999999</v>
       </c>
       <c r="F16">
-        <v>1033.2</v>
+        <v>170.286</v>
       </c>
       <c r="G16">
-        <v>2927.3</v>
+        <v>464.23700000000002</v>
       </c>
       <c r="H16">
-        <v>11629</v>
+        <v>1421.7170000000001</v>
       </c>
       <c r="I16">
-        <v>428.7</v>
+        <v>42.514000000000003</v>
       </c>
       <c r="J16">
-        <v>3862</v>
+        <v>399.50400000000002</v>
       </c>
       <c r="K16">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-669.8</v>
+        <v>-157.29300000000001</v>
       </c>
       <c r="N16">
-        <v>1466.4</v>
+        <v>163.97200000000001</v>
       </c>
       <c r="O16">
-        <v>7149.5</v>
+        <v>864.92399999999998</v>
       </c>
       <c r="P16">
-        <v>4131.1000000000004</v>
+        <v>399.50400000000002</v>
       </c>
       <c r="Q16">
-        <v>-80.2</v>
+        <v>-10.003</v>
       </c>
       <c r="R16">
-        <v>41763</v>
+        <v>38109</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4479.5</v>
+        <v>556.79300000000001</v>
       </c>
       <c r="U16">
-        <v>513</v>
+        <v>122.985</v>
       </c>
       <c r="V16">
-        <v>-51.4</v>
+        <v>17.048999999999999</v>
       </c>
       <c r="W16">
-        <v>-3.1</v>
+        <v>-7.5869999999999997</v>
       </c>
       <c r="X16">
-        <v>52.8</v>
+        <v>-17.655000000000001</v>
       </c>
       <c r="Y16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>35.299999999999997</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41854</v>
+        <v>38200</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>126.5</v>
+        <v>12.99</v>
       </c>
       <c r="D17">
-        <v>1975.6</v>
+        <v>375.92399999999998</v>
       </c>
       <c r="E17">
-        <v>730.1</v>
+        <v>109.416</v>
       </c>
       <c r="F17">
-        <v>1054.7</v>
+        <v>173.00299999999999</v>
       </c>
       <c r="G17">
-        <v>2994.5</v>
+        <v>502.96199999999999</v>
       </c>
       <c r="H17">
-        <v>11585.3</v>
+        <v>1470.383</v>
       </c>
       <c r="I17">
-        <v>576.70000000000005</v>
+        <v>64.495999999999995</v>
       </c>
       <c r="J17">
-        <v>3642.9</v>
+        <v>399.50700000000001</v>
       </c>
       <c r="K17">
-        <v>165.2</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1604.1</v>
+        <v>189.65600000000001</v>
       </c>
       <c r="O17">
-        <v>7055</v>
+        <v>903.42200000000003</v>
       </c>
       <c r="P17">
-        <v>3929.4</v>
+        <v>399.50700000000001</v>
       </c>
       <c r="Q17">
-        <v>-51.9</v>
+        <v>20.718</v>
       </c>
       <c r="R17">
-        <v>41854</v>
+        <v>38200</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4530.3</v>
+        <v>566.96100000000001</v>
       </c>
       <c r="U17">
-        <v>461.1</v>
+        <v>143.703</v>
       </c>
       <c r="V17">
-        <v>221.6</v>
+        <v>39.384999999999998</v>
       </c>
       <c r="W17">
-        <v>-6.3</v>
+        <v>-5.28</v>
       </c>
       <c r="X17">
-        <v>-206.1</v>
+        <v>-2.8530000000000002</v>
       </c>
       <c r="Y17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>126.5</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41945</v>
+        <v>38291</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>225.7</v>
+        <v>26.741</v>
       </c>
       <c r="D18">
-        <v>2233.1</v>
+        <v>473.45600000000002</v>
       </c>
       <c r="E18">
-        <v>879.7</v>
+        <v>160.21299999999999</v>
       </c>
       <c r="F18">
-        <v>1167.5</v>
+        <v>209.91200000000001</v>
       </c>
       <c r="G18">
-        <v>2866.7</v>
+        <v>530.40499999999997</v>
       </c>
       <c r="H18">
-        <v>11265.7</v>
+        <v>1509.27</v>
       </c>
       <c r="I18">
-        <v>476.2</v>
+        <v>60.265000000000001</v>
       </c>
       <c r="J18">
-        <v>3618.7</v>
+        <v>399.51</v>
       </c>
       <c r="K18">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1378.7</v>
+        <v>194.947</v>
       </c>
       <c r="O18">
-        <v>6681.9</v>
+        <v>921.60199999999998</v>
       </c>
       <c r="P18">
-        <v>3778.9</v>
+        <v>399.51</v>
       </c>
       <c r="Q18">
-        <v>-96</v>
+        <v>-49.4</v>
       </c>
       <c r="R18">
-        <v>41945</v>
+        <v>38291</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>4583.8</v>
+        <v>587.66800000000001</v>
       </c>
       <c r="U18">
-        <v>365.1</v>
+        <v>94.302999999999997</v>
       </c>
       <c r="V18">
-        <v>153.69999999999999</v>
+        <v>-24.61</v>
       </c>
       <c r="W18">
-        <v>-3.1</v>
+        <v>-7.609</v>
       </c>
       <c r="X18">
-        <v>-151.5</v>
+        <v>-6.226</v>
       </c>
       <c r="Y18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>225.7</v>
+        <v>26.741</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42036</v>
+        <v>38382</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>51.5</v>
+        <v>17.291</v>
       </c>
       <c r="D19">
-        <v>2068.8000000000002</v>
+        <v>413.81</v>
       </c>
       <c r="E19">
-        <v>705.7</v>
+        <v>93.447000000000003</v>
       </c>
       <c r="F19">
-        <v>1072.3</v>
+        <v>197.79</v>
       </c>
       <c r="G19">
-        <v>2785.8</v>
+        <v>493.36399999999998</v>
       </c>
       <c r="H19">
-        <v>10824.9</v>
+        <v>1549.5820000000001</v>
       </c>
       <c r="I19">
-        <v>565.29999999999995</v>
+        <v>54.530999999999999</v>
       </c>
       <c r="J19">
-        <v>3438.7</v>
+        <v>399.512</v>
       </c>
       <c r="K19">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1428.1</v>
+        <v>208.49299999999999</v>
       </c>
       <c r="O19">
-        <v>6460.6</v>
+        <v>920.81</v>
       </c>
       <c r="P19">
-        <v>3546.5</v>
+        <v>399.512</v>
       </c>
       <c r="Q19">
-        <v>114.2</v>
+        <v>29.811</v>
       </c>
       <c r="R19">
-        <v>42036</v>
+        <v>38382</v>
       </c>
       <c r="S19">
-        <v>17600</v>
+        <v>4900</v>
       </c>
       <c r="T19">
-        <v>4364.3</v>
+        <v>628.77200000000005</v>
       </c>
       <c r="U19">
-        <v>479.3</v>
+        <v>124.114</v>
       </c>
       <c r="V19">
-        <v>465.2</v>
+        <v>110.825</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-5.2809999999999997</v>
       </c>
       <c r="X19">
-        <v>-209.7</v>
+        <v>13.448</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AA19">
-        <v>51.5</v>
+        <v>17.291</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42127</v>
+        <v>38473</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>114.1</v>
+        <v>24.98</v>
       </c>
       <c r="D20">
-        <v>1879.3</v>
+        <v>472.10899999999998</v>
       </c>
       <c r="E20">
-        <v>733.6</v>
+        <v>128.345</v>
       </c>
       <c r="F20">
-        <v>985.6</v>
+        <v>209.39400000000001</v>
       </c>
       <c r="G20">
-        <v>2735.7</v>
+        <v>512.31200000000001</v>
       </c>
       <c r="H20">
-        <v>10772.4</v>
+        <v>1576.6569999999999</v>
       </c>
       <c r="I20">
-        <v>411.7</v>
+        <v>47.497</v>
       </c>
       <c r="J20">
-        <v>3389.7</v>
+        <v>399.51499999999999</v>
       </c>
       <c r="K20">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-51.7</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1227.5999999999999</v>
+        <v>173.63200000000001</v>
       </c>
       <c r="O20">
-        <v>6327.9</v>
+        <v>911.21799999999996</v>
       </c>
       <c r="P20">
-        <v>3518.6</v>
+        <v>399.51499999999999</v>
       </c>
       <c r="Q20">
-        <v>-60</v>
+        <v>2.77</v>
       </c>
       <c r="R20">
-        <v>42127</v>
+        <v>38473</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4444.5</v>
+        <v>665.43899999999996</v>
       </c>
       <c r="U20">
-        <v>419.3</v>
+        <v>126.884</v>
       </c>
       <c r="V20">
-        <v>60.4</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="W20">
-        <v>-6.2</v>
+        <v>-7.7649999999999997</v>
       </c>
       <c r="X20">
-        <v>-59.5</v>
+        <v>11.705</v>
       </c>
       <c r="Y20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-22.4</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>114.1</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42218</v>
+        <v>38564</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>102.2</v>
+        <v>23.5</v>
       </c>
       <c r="D21">
-        <v>1864</v>
+        <v>443.46899999999999</v>
       </c>
       <c r="E21">
-        <v>590.20000000000005</v>
+        <v>118.224</v>
       </c>
       <c r="F21">
-        <v>1002.1</v>
+        <v>210.15600000000001</v>
       </c>
       <c r="G21">
-        <v>2819.8</v>
+        <v>572.39700000000005</v>
       </c>
       <c r="H21">
-        <v>10745</v>
+        <v>1643.633</v>
       </c>
       <c r="I21">
-        <v>551</v>
+        <v>62.942</v>
       </c>
       <c r="J21">
-        <v>3262.2</v>
+        <v>399.51900000000001</v>
       </c>
       <c r="K21">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1369</v>
+        <v>199.88300000000001</v>
       </c>
       <c r="O21">
-        <v>6335.2</v>
+        <v>956.22500000000002</v>
       </c>
       <c r="P21">
-        <v>3399</v>
+        <v>399.51900000000001</v>
       </c>
       <c r="Q21">
-        <v>47.4</v>
+        <v>44.265999999999998</v>
       </c>
       <c r="R21">
-        <v>42218</v>
+        <v>38564</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4409.8</v>
+        <v>687.40800000000002</v>
       </c>
       <c r="U21">
-        <v>466.7</v>
+        <v>171.15</v>
       </c>
       <c r="V21">
-        <v>262.60000000000002</v>
+        <v>60.823999999999998</v>
       </c>
       <c r="W21">
-        <v>-3.2</v>
+        <v>-3.2490000000000001</v>
       </c>
       <c r="X21">
-        <v>-137.9</v>
+        <v>-1.4470000000000001</v>
       </c>
       <c r="Y21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>102.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42309</v>
+        <v>38655</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>221.9</v>
+        <v>40.289000000000001</v>
       </c>
       <c r="D22">
-        <v>2164.5</v>
+        <v>533.18100000000004</v>
       </c>
       <c r="E22">
-        <v>824.3</v>
+        <v>189.679</v>
       </c>
       <c r="F22">
-        <v>1101</v>
+        <v>249.24600000000001</v>
       </c>
       <c r="G22">
-        <v>2858.2</v>
+        <v>643.81299999999999</v>
       </c>
       <c r="H22">
-        <v>10805.4</v>
+        <v>1723.7239999999999</v>
       </c>
       <c r="I22">
-        <v>495.3</v>
+        <v>57.357999999999997</v>
       </c>
       <c r="J22">
-        <v>3215.5</v>
+        <v>399.52199999999999</v>
       </c>
       <c r="K22">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1366.4</v>
+        <v>217.17</v>
       </c>
       <c r="O22">
-        <v>6259.8</v>
+        <v>998.35699999999997</v>
       </c>
       <c r="P22">
-        <v>3367.2</v>
+        <v>399.52199999999999</v>
       </c>
       <c r="Q22">
-        <v>-96.8</v>
+        <v>-0.88500000000000001</v>
       </c>
       <c r="R22">
-        <v>42309</v>
+        <v>38655</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>4545.6000000000004</v>
+        <v>725.36699999999996</v>
       </c>
       <c r="U22">
-        <v>369.9</v>
+        <v>170.26499999999999</v>
       </c>
       <c r="V22">
-        <v>65.099999999999994</v>
+        <v>16.879000000000001</v>
       </c>
       <c r="W22">
-        <v>-3.1</v>
+        <v>-6.3860000000000001</v>
       </c>
       <c r="X22">
-        <v>-78.7</v>
+        <v>-2.331</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>221.9</v>
+        <v>40.289000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>134.19999999999999</v>
+        <v>22.919</v>
       </c>
       <c r="D23">
-        <v>2112.5</v>
+        <v>460.089</v>
       </c>
       <c r="E23">
-        <v>657.2</v>
+        <v>102.8</v>
       </c>
       <c r="F23">
-        <v>1072.9000000000001</v>
+        <v>222.25899999999999</v>
       </c>
       <c r="G23">
-        <v>2804.5</v>
+        <v>669.69100000000003</v>
       </c>
       <c r="H23">
-        <v>10673.8</v>
+        <v>1753.482</v>
       </c>
       <c r="I23">
-        <v>636.1</v>
+        <v>61.595999999999997</v>
       </c>
       <c r="J23">
-        <v>3052.3</v>
+        <v>399.52499999999998</v>
       </c>
       <c r="K23">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,164 +2635,164 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1527.2</v>
+        <v>230.65899999999999</v>
       </c>
       <c r="O23">
-        <v>6121.5</v>
+        <v>980.89400000000001</v>
       </c>
       <c r="P23">
-        <v>3229.4</v>
+        <v>399.52499999999998</v>
       </c>
       <c r="Q23">
-        <v>186.5</v>
+        <v>97.091999999999999</v>
       </c>
       <c r="R23">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="S23">
-        <v>18200</v>
+        <v>5200</v>
       </c>
       <c r="T23">
-        <v>4552.3</v>
+        <v>772.58799999999997</v>
       </c>
       <c r="U23">
-        <v>556.4</v>
+        <v>267.35700000000003</v>
       </c>
       <c r="V23">
-        <v>511.5</v>
+        <v>107.17100000000001</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="X23">
-        <v>-202.3</v>
+        <v>9.8170000000000002</v>
       </c>
       <c r="Y23">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>134.19999999999999</v>
+        <v>22.919</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>231.6</v>
+        <v>48.744999999999997</v>
       </c>
       <c r="D24">
-        <v>1917.8</v>
+        <v>506.43799999999999</v>
       </c>
       <c r="E24">
-        <v>661.5</v>
+        <v>140.63</v>
       </c>
       <c r="F24">
-        <v>1006.9</v>
+        <v>242.72399999999999</v>
       </c>
       <c r="G24">
-        <v>2528.1999999999998</v>
+        <v>717.58500000000004</v>
       </c>
       <c r="H24">
-        <v>10885.1</v>
+        <v>1803.8720000000001</v>
       </c>
       <c r="I24">
-        <v>497.7</v>
+        <v>47.942999999999998</v>
       </c>
       <c r="J24">
-        <v>2991.6</v>
+        <v>399.52800000000002</v>
       </c>
       <c r="K24">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-53.9</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1394.9</v>
+        <v>203.00399999999999</v>
       </c>
       <c r="O24">
-        <v>6022.8</v>
+        <v>977.41700000000003</v>
       </c>
       <c r="P24">
-        <v>3159.3</v>
+        <v>399.52800000000002</v>
       </c>
       <c r="Q24">
-        <v>-191.3</v>
+        <v>37.796999999999997</v>
       </c>
       <c r="R24">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4862.3</v>
+        <v>826.45500000000004</v>
       </c>
       <c r="U24">
-        <v>365.1</v>
+        <v>305.154</v>
       </c>
       <c r="V24">
-        <v>109.3</v>
+        <v>17.582000000000001</v>
       </c>
       <c r="W24">
-        <v>-6.2</v>
+        <v>-6.931</v>
       </c>
       <c r="X24">
-        <v>-97.2</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1.5</v>
+        <v>32.136000000000003</v>
       </c>
       <c r="AA24">
-        <v>231.6</v>
+        <v>48.744999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>90.5</v>
+        <v>28.952999999999999</v>
       </c>
       <c r="D25">
-        <v>1933.3</v>
+        <v>458.928</v>
       </c>
       <c r="E25">
-        <v>569.6</v>
+        <v>105.128</v>
       </c>
       <c r="F25">
-        <v>1033.8</v>
+        <v>227.14699999999999</v>
       </c>
       <c r="G25">
-        <v>2939</v>
+        <v>763.976</v>
       </c>
       <c r="H25">
-        <v>11179.8</v>
+        <v>1855.239</v>
       </c>
       <c r="I25">
-        <v>631.79999999999995</v>
+        <v>70.44</v>
       </c>
       <c r="J25">
-        <v>3358.2</v>
+        <v>399.53100000000001</v>
       </c>
       <c r="K25">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1388.2</v>
+        <v>234.43799999999999</v>
       </c>
       <c r="O25">
-        <v>6376.2</v>
+        <v>1005.414</v>
       </c>
       <c r="P25">
-        <v>3377.6</v>
+        <v>399.53100000000001</v>
       </c>
       <c r="Q25">
-        <v>376.6</v>
+        <v>62.55</v>
       </c>
       <c r="R25">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4803.6000000000004</v>
+        <v>849.82500000000005</v>
       </c>
       <c r="U25">
-        <v>741.7</v>
+        <v>367.70400000000001</v>
       </c>
       <c r="V25">
-        <v>299.89999999999998</v>
+        <v>85.230999999999995</v>
       </c>
       <c r="W25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>131.80000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AA25">
-        <v>90.5</v>
+        <v>28.952999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>126.2</v>
+        <v>50.773000000000003</v>
       </c>
       <c r="D26">
-        <v>2244.3000000000002</v>
+        <v>568.26099999999997</v>
       </c>
       <c r="E26">
-        <v>765.4</v>
+        <v>168.74199999999999</v>
       </c>
       <c r="F26">
-        <v>1191.5999999999999</v>
+        <v>280.38099999999997</v>
       </c>
       <c r="G26">
-        <v>2948.1</v>
+        <v>842.50300000000004</v>
       </c>
       <c r="H26">
-        <v>11068.6</v>
+        <v>1944.9090000000001</v>
       </c>
       <c r="I26">
-        <v>496.5</v>
+        <v>74.692999999999998</v>
       </c>
       <c r="J26">
-        <v>3303.1</v>
+        <v>399.53500000000003</v>
       </c>
       <c r="K26">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1356.4</v>
+        <v>248.07400000000001</v>
       </c>
       <c r="O26">
-        <v>6273.1</v>
+        <v>1041.5250000000001</v>
       </c>
       <c r="P26">
-        <v>3323.9</v>
+        <v>399.53500000000003</v>
       </c>
       <c r="Q26">
-        <v>-79.3</v>
+        <v>-9.1020000000000003</v>
       </c>
       <c r="R26">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>4795.5</v>
+        <v>903.38400000000001</v>
       </c>
       <c r="U26">
-        <v>662.4</v>
+        <v>358.60199999999998</v>
       </c>
       <c r="V26">
-        <v>168.1</v>
+        <v>9.6280000000000001</v>
       </c>
       <c r="W26">
-        <v>-3</v>
+        <v>-2.0760000000000001</v>
       </c>
       <c r="X26">
-        <v>-145.9</v>
+        <v>0.86</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-23.2</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>126.2</v>
+        <v>50.773000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42764</v>
+        <v>39117</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>100.7</v>
+        <v>26.757999999999999</v>
       </c>
       <c r="D27">
-        <v>2107.6999999999998</v>
+        <v>557.02099999999996</v>
       </c>
       <c r="E27">
-        <v>616</v>
+        <v>92.947999999999993</v>
       </c>
       <c r="F27">
-        <v>1138</v>
+        <v>279.61200000000002</v>
       </c>
       <c r="G27">
-        <v>2879.6</v>
+        <v>799.86300000000006</v>
       </c>
       <c r="H27">
-        <v>11067.9</v>
+        <v>2013.345</v>
       </c>
       <c r="I27">
-        <v>682.6</v>
+        <v>81.873999999999995</v>
       </c>
       <c r="J27">
-        <v>3197.4</v>
+        <v>399.53800000000001</v>
       </c>
       <c r="K27">
-        <v>19.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,164 +2967,164 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1564.8</v>
+        <v>298.02600000000001</v>
       </c>
       <c r="O27">
-        <v>6261.4</v>
+        <v>1071.1880000000001</v>
       </c>
       <c r="P27">
-        <v>3223.5</v>
+        <v>399.53800000000001</v>
       </c>
       <c r="Q27">
-        <v>67.7</v>
+        <v>7.4969999999999999</v>
       </c>
       <c r="R27">
-        <v>42764</v>
+        <v>39117</v>
       </c>
       <c r="S27">
-        <v>18800</v>
+        <v>5600</v>
       </c>
       <c r="T27">
-        <v>4806.5</v>
+        <v>942.15700000000004</v>
       </c>
       <c r="U27">
-        <v>730.1</v>
+        <v>366.09899999999999</v>
       </c>
       <c r="V27">
-        <v>378.4</v>
+        <v>142.02199999999999</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-2.08</v>
       </c>
       <c r="X27">
-        <v>-192.8</v>
+        <v>8.218</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>100.7</v>
+        <v>26.757999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42855</v>
+        <v>39208</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>70.400000000000006</v>
+        <v>53.006</v>
       </c>
       <c r="D28">
-        <v>1989</v>
+        <v>591.90599999999995</v>
       </c>
       <c r="E28">
-        <v>688.1</v>
+        <v>177.249</v>
       </c>
       <c r="F28">
-        <v>1080.8</v>
+        <v>292.57299999999998</v>
       </c>
       <c r="G28">
-        <v>2655.2</v>
+        <v>802.423</v>
       </c>
       <c r="H28">
-        <v>10912.3</v>
+        <v>2022.204</v>
       </c>
       <c r="I28">
-        <v>546.70000000000005</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="J28">
-        <v>3161.1</v>
+        <v>399.541</v>
       </c>
       <c r="K28">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-51.2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1378.2</v>
+        <v>229.88300000000001</v>
       </c>
       <c r="O28">
-        <v>6033.9</v>
+        <v>1027.0070000000001</v>
       </c>
       <c r="P28">
-        <v>3219.6</v>
+        <v>399.541</v>
       </c>
       <c r="Q28">
-        <v>-239.2</v>
+        <v>-66.367000000000004</v>
       </c>
       <c r="R28">
-        <v>42855</v>
+        <v>39208</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4878.3999999999996</v>
+        <v>995.197</v>
       </c>
       <c r="U28">
-        <v>490.9</v>
+        <v>299.73200000000003</v>
       </c>
       <c r="V28">
-        <v>-57.4</v>
+        <v>-53.064999999999998</v>
       </c>
       <c r="W28">
-        <v>-5.9</v>
+        <v>-4.2080000000000002</v>
       </c>
       <c r="X28">
-        <v>-94.3</v>
+        <v>1.44</v>
       </c>
       <c r="Y28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>70.400000000000006</v>
+        <v>53.006</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42946</v>
+        <v>39299</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>119.7</v>
+        <v>39.1</v>
       </c>
       <c r="D29">
-        <v>2069.9</v>
+        <v>552.37599999999998</v>
       </c>
       <c r="E29">
-        <v>646.20000000000005</v>
+        <v>153.28399999999999</v>
       </c>
       <c r="F29">
-        <v>1147.3</v>
+        <v>277.45299999999997</v>
       </c>
       <c r="G29">
-        <v>2935.5</v>
+        <v>878.57100000000003</v>
       </c>
       <c r="H29">
-        <v>11453.9</v>
+        <v>2120.4969999999998</v>
       </c>
       <c r="I29">
-        <v>767.1</v>
+        <v>104.94799999999999</v>
       </c>
       <c r="J29">
-        <v>3185.7</v>
+        <v>399.54500000000002</v>
       </c>
       <c r="K29">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1633.2</v>
+        <v>264.90899999999999</v>
       </c>
       <c r="O29">
-        <v>6355.6</v>
+        <v>1070.471</v>
       </c>
       <c r="P29">
-        <v>3203.7</v>
+        <v>399.54500000000002</v>
       </c>
       <c r="Q29">
-        <v>68.5</v>
+        <v>66.539000000000001</v>
       </c>
       <c r="R29">
-        <v>42946</v>
+        <v>39299</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5098.3</v>
+        <v>1050.0260000000001</v>
       </c>
       <c r="U29">
-        <v>559.4</v>
+        <v>366.27100000000002</v>
       </c>
       <c r="V29">
-        <v>234.7</v>
+        <v>88.028000000000006</v>
       </c>
       <c r="W29">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-89.5</v>
+        <v>11.263999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>119.7</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43037</v>
+        <v>39390</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>239.2</v>
+        <v>60.878999999999998</v>
       </c>
       <c r="D30">
-        <v>2357</v>
+        <v>696.37</v>
       </c>
       <c r="E30">
-        <v>827.9</v>
+        <v>267.98200000000003</v>
       </c>
       <c r="F30">
-        <v>1297.3</v>
+        <v>328.608</v>
       </c>
       <c r="G30">
-        <v>3144.1</v>
+        <v>969.99699999999996</v>
       </c>
       <c r="H30">
-        <v>11658.2</v>
+        <v>2238.35</v>
       </c>
       <c r="I30">
-        <v>681.3</v>
+        <v>128.09</v>
       </c>
       <c r="J30">
-        <v>3182.7</v>
+        <v>399.54899999999998</v>
       </c>
       <c r="K30">
-        <v>207.5</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1726.3</v>
+        <v>309.8</v>
       </c>
       <c r="O30">
-        <v>6405.8</v>
+        <v>1127.818</v>
       </c>
       <c r="P30">
-        <v>3390.2</v>
+        <v>399.54899999999998</v>
       </c>
       <c r="Q30">
-        <v>52.9</v>
+        <v>-29.641999999999999</v>
       </c>
       <c r="R30">
-        <v>43037</v>
+        <v>39390</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5252.4</v>
+        <v>1110.5319999999999</v>
       </c>
       <c r="U30">
-        <v>612.29999999999995</v>
+        <v>336.62900000000002</v>
       </c>
       <c r="V30">
-        <v>28.1</v>
+        <v>8.2110000000000003</v>
       </c>
       <c r="W30">
-        <v>-2.9</v>
+        <v>-4.2460000000000004</v>
       </c>
       <c r="X30">
-        <v>118.7</v>
+        <v>-3.39</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>239.2</v>
+        <v>60.878999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43135</v>
+        <v>39481</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>108.5</v>
+        <v>30.334</v>
       </c>
       <c r="D31">
-        <v>2498.9</v>
+        <v>584.52300000000002</v>
       </c>
       <c r="E31">
-        <v>658.5</v>
+        <v>154.35499999999999</v>
       </c>
       <c r="F31">
-        <v>1369</v>
+        <v>292.35300000000001</v>
       </c>
       <c r="G31">
-        <v>3030.8</v>
+        <v>836.21900000000005</v>
       </c>
       <c r="H31">
-        <v>11885.7</v>
+        <v>2172.3939999999998</v>
       </c>
       <c r="I31">
-        <v>889.8</v>
+        <v>112.82899999999999</v>
       </c>
       <c r="J31">
-        <v>3061.3</v>
+        <v>399.55200000000002</v>
       </c>
       <c r="K31">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,120 +3299,120 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1871.6</v>
+        <v>360.14800000000002</v>
       </c>
       <c r="O31">
-        <v>6347.3</v>
+        <v>1216.1110000000001</v>
       </c>
       <c r="P31">
-        <v>3096.9</v>
+        <v>399.55200000000002</v>
       </c>
       <c r="Q31">
-        <v>-118.4</v>
+        <v>-66.715000000000003</v>
       </c>
       <c r="R31">
-        <v>43135</v>
+        <v>39481</v>
       </c>
       <c r="S31">
-        <v>19600</v>
+        <v>6300</v>
       </c>
       <c r="T31">
-        <v>5538.4</v>
+        <v>956.28300000000002</v>
       </c>
       <c r="U31">
-        <v>493.9</v>
+        <v>269.91399999999999</v>
       </c>
       <c r="V31">
-        <v>438.8</v>
+        <v>176.161</v>
       </c>
       <c r="W31">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-443.9</v>
+        <v>-199.23500000000001</v>
       </c>
       <c r="Y31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>108.5</v>
+        <v>30.334</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43226</v>
+        <v>39572</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>179.4</v>
+        <v>46.801000000000002</v>
       </c>
       <c r="D32">
-        <v>2314.6</v>
+        <v>625.69799999999998</v>
       </c>
       <c r="E32">
-        <v>787.6</v>
+        <v>243.90899999999999</v>
       </c>
       <c r="F32">
-        <v>1291</v>
+        <v>310.79000000000002</v>
       </c>
       <c r="G32">
-        <v>3041.6</v>
+        <v>790.90499999999997</v>
       </c>
       <c r="H32">
-        <v>11714.6</v>
+        <v>2157.71</v>
       </c>
       <c r="I32">
-        <v>670.5</v>
+        <v>70.105999999999995</v>
       </c>
       <c r="J32">
-        <v>3013.2</v>
+        <v>399.55599999999998</v>
       </c>
       <c r="K32">
-        <v>254.5</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1727.1</v>
+        <v>291.733</v>
       </c>
       <c r="O32">
-        <v>6148.5</v>
+        <v>1154.067</v>
       </c>
       <c r="P32">
-        <v>3267.7</v>
+        <v>399.55599999999998</v>
       </c>
       <c r="Q32">
-        <v>-59.4</v>
+        <v>-85.691000000000003</v>
       </c>
       <c r="R32">
-        <v>43226</v>
+        <v>39572</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5566.1</v>
+        <v>1003.643</v>
       </c>
       <c r="U32">
-        <v>434.5</v>
+        <v>184.22300000000001</v>
       </c>
       <c r="V32">
-        <v>-125.7</v>
+        <v>-5.7329999999999997</v>
       </c>
       <c r="W32">
-        <v>-5.9</v>
+        <v>-3.8719999999999999</v>
       </c>
       <c r="X32">
-        <v>166</v>
+        <v>-1.71</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>179.4</v>
+        <v>46.801000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43317</v>
+        <v>39663</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>165.2</v>
+        <v>29.206</v>
       </c>
       <c r="D33">
-        <v>2333.6999999999998</v>
+        <v>560.96699999999998</v>
       </c>
       <c r="E33">
-        <v>710.4</v>
+        <v>173.91499999999999</v>
       </c>
       <c r="F33">
-        <v>1297</v>
+        <v>288.93700000000001</v>
       </c>
       <c r="G33">
-        <v>3166</v>
+        <v>812.21600000000001</v>
       </c>
       <c r="H33">
-        <v>11697.7</v>
+        <v>2199.5349999999999</v>
       </c>
       <c r="I33">
-        <v>922.6</v>
+        <v>94.677999999999997</v>
       </c>
       <c r="J33">
-        <v>2893.5</v>
+        <v>399.56</v>
       </c>
       <c r="K33">
-        <v>85.4</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1835.7</v>
+        <v>293.851</v>
       </c>
       <c r="O33">
-        <v>6131.3</v>
+        <v>1161.626</v>
       </c>
       <c r="P33">
-        <v>2979</v>
+        <v>399.56</v>
       </c>
       <c r="Q33">
-        <v>-3.4</v>
+        <v>76.281999999999996</v>
       </c>
       <c r="R33">
-        <v>43317</v>
+        <v>39663</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5566.4</v>
+        <v>1037.9090000000001</v>
       </c>
       <c r="U33">
-        <v>431.1</v>
+        <v>260.505</v>
       </c>
       <c r="V33">
-        <v>436.6</v>
+        <v>113.15</v>
       </c>
       <c r="W33">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-338.2</v>
+        <v>1.5569999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>165.2</v>
+        <v>29.206</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43408</v>
+        <v>39754</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>243.1</v>
+        <v>53.698999999999998</v>
       </c>
       <c r="D34">
-        <v>2524.5</v>
+        <v>727.48400000000004</v>
       </c>
       <c r="E34">
-        <v>937</v>
+        <v>301.173</v>
       </c>
       <c r="F34">
-        <v>1364.8</v>
+        <v>341.3</v>
       </c>
       <c r="G34">
-        <v>3307.8</v>
+        <v>877.40899999999999</v>
       </c>
       <c r="H34">
-        <v>11830.9</v>
+        <v>2283.8989999999999</v>
       </c>
       <c r="I34">
-        <v>752.5</v>
+        <v>104.473</v>
       </c>
       <c r="J34">
-        <v>2878.3</v>
+        <v>399.56400000000002</v>
       </c>
       <c r="K34">
-        <v>276.7</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1898.6</v>
+        <v>349.59699999999998</v>
       </c>
       <c r="O34">
-        <v>6149.2</v>
+        <v>1192.8340000000001</v>
       </c>
       <c r="P34">
-        <v>3155.1</v>
+        <v>399.56400000000002</v>
       </c>
       <c r="Q34">
-        <v>-32.6</v>
+        <v>-62.948</v>
       </c>
       <c r="R34">
-        <v>43408</v>
+        <v>39754</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>5681.7</v>
+        <v>1091.0650000000001</v>
       </c>
       <c r="U34">
-        <v>398.5</v>
+        <v>197.55699999999999</v>
       </c>
       <c r="V34">
-        <v>-5.8</v>
+        <v>-28.001000000000001</v>
       </c>
       <c r="W34">
-        <v>-2.8</v>
+        <v>-3.8879999999999999</v>
       </c>
       <c r="X34">
-        <v>78.7</v>
+        <v>-3.4079999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,42 +3587,42 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>243.1</v>
+        <v>53.698999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43499</v>
+        <v>39845</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>158.69999999999999</v>
+        <v>-37.935000000000002</v>
       </c>
       <c r="D35">
-        <v>2484</v>
+        <v>577.78599999999994</v>
       </c>
       <c r="E35">
-        <v>777.8</v>
+        <v>187.642</v>
       </c>
       <c r="F35">
-        <v>1357.7</v>
+        <v>265.01600000000002</v>
       </c>
       <c r="G35">
-        <v>3238.6</v>
+        <v>864.42899999999997</v>
       </c>
       <c r="H35">
-        <v>11863.7</v>
+        <v>2200.1840000000002</v>
       </c>
       <c r="I35">
-        <v>924.2</v>
+        <v>92.617999999999995</v>
       </c>
       <c r="J35">
-        <v>2821</v>
+        <v>399.56700000000001</v>
       </c>
       <c r="K35">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,37 +3631,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1893.9</v>
+        <v>349.238</v>
       </c>
       <c r="O35">
-        <v>6035.7</v>
+        <v>1201.3889999999999</v>
       </c>
       <c r="P35">
-        <v>2835</v>
+        <v>399.56700000000001</v>
       </c>
       <c r="Q35">
-        <v>53.5</v>
+        <v>130.61000000000001</v>
       </c>
       <c r="R35">
-        <v>43499</v>
+        <v>39845</v>
       </c>
       <c r="S35">
-        <v>20500</v>
+        <v>6000</v>
       </c>
       <c r="T35">
-        <v>5828</v>
+        <v>998.79499999999996</v>
       </c>
       <c r="U35">
-        <v>452</v>
+        <v>328.16699999999997</v>
       </c>
       <c r="V35">
-        <v>547.4</v>
+        <v>159.33099999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-385</v>
+        <v>-0.249</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,125 +3670,125 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>158.69999999999999</v>
+        <v>-37.935000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43590</v>
+        <v>39936</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>82</v>
+        <v>24.710999999999999</v>
       </c>
       <c r="D36">
-        <v>2356.3000000000002</v>
+        <v>557.42499999999995</v>
       </c>
       <c r="E36">
-        <v>851.6</v>
+        <v>210.69300000000001</v>
       </c>
       <c r="F36">
-        <v>1295.9000000000001</v>
+        <v>271.82600000000002</v>
       </c>
       <c r="G36">
-        <v>3253.4</v>
+        <v>848.51900000000001</v>
       </c>
       <c r="H36">
-        <v>13355</v>
+        <v>2194.1799999999998</v>
       </c>
       <c r="I36">
-        <v>696.2</v>
+        <v>72.774000000000001</v>
       </c>
       <c r="J36">
-        <v>2761.3</v>
+        <v>399.572</v>
       </c>
       <c r="K36">
-        <v>299.7</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-1650.8</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>2206.6</v>
+        <v>315.30399999999997</v>
       </c>
       <c r="O36">
-        <v>7593.7</v>
+        <v>1170.748</v>
       </c>
       <c r="P36">
-        <v>4943.1000000000004</v>
+        <v>399.572</v>
       </c>
       <c r="Q36">
-        <v>42.3</v>
+        <v>-46.161999999999999</v>
       </c>
       <c r="R36">
-        <v>43590</v>
+        <v>39936</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5761.3</v>
+        <v>1023.432</v>
       </c>
       <c r="U36">
-        <v>494.3</v>
+        <v>282.005</v>
       </c>
       <c r="V36">
-        <v>-73.2</v>
+        <v>-21.616</v>
       </c>
       <c r="W36">
-        <v>-5.7</v>
+        <v>-3.8849999999999998</v>
       </c>
       <c r="X36">
-        <v>198.3</v>
+        <v>-3.0619999999999998</v>
       </c>
       <c r="Y36">
-        <v>1510.4</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>82</v>
+        <v>24.710999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43681</v>
+        <v>40027</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>193.5</v>
+        <v>26.556999999999999</v>
       </c>
       <c r="D37">
-        <v>2364.1999999999998</v>
+        <v>529.28300000000002</v>
       </c>
       <c r="E37">
-        <v>781</v>
+        <v>160.48599999999999</v>
       </c>
       <c r="F37">
-        <v>1288.4000000000001</v>
+        <v>265.75599999999997</v>
       </c>
       <c r="G37">
-        <v>3398.6</v>
+        <v>885.59100000000001</v>
       </c>
       <c r="H37">
-        <v>13820.9</v>
+        <v>2233.1880000000001</v>
       </c>
       <c r="I37">
-        <v>930.2</v>
+        <v>98.703000000000003</v>
       </c>
       <c r="J37">
-        <v>2745.9</v>
+        <v>399.57600000000002</v>
       </c>
       <c r="K37">
-        <v>183.2</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2427.6999999999998</v>
+        <v>358.39</v>
       </c>
       <c r="O37">
-        <v>7949.8</v>
+        <v>1178.2919999999999</v>
       </c>
       <c r="P37">
-        <v>4870.3999999999996</v>
+        <v>399.57600000000002</v>
       </c>
       <c r="Q37">
-        <v>-60.8</v>
+        <v>87.590999999999994</v>
       </c>
       <c r="R37">
-        <v>43681</v>
+        <v>40027</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5871.1</v>
+        <v>1054.896</v>
       </c>
       <c r="U37">
-        <v>433.5</v>
+        <v>369.596</v>
       </c>
       <c r="V37">
-        <v>391.1</v>
+        <v>102.46899999999999</v>
       </c>
       <c r="W37">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-242.1</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="Y37">
-        <v>1546.1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>193.5</v>
+        <v>26.556999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43772</v>
+        <v>40118</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>209.2</v>
+        <v>83.619</v>
       </c>
       <c r="D38">
-        <v>2587.6999999999998</v>
+        <v>697.44</v>
       </c>
       <c r="E38">
-        <v>972.7</v>
+        <v>272.09800000000001</v>
       </c>
       <c r="F38">
-        <v>1406.2</v>
+        <v>337.67399999999998</v>
       </c>
       <c r="G38">
-        <v>3582.1</v>
+        <v>957.79399999999998</v>
       </c>
       <c r="H38">
-        <v>14019.2</v>
+        <v>2303.9850000000001</v>
       </c>
       <c r="I38">
-        <v>780.5</v>
+        <v>101.39100000000001</v>
       </c>
       <c r="J38">
-        <v>2740.2</v>
+        <v>399.58</v>
       </c>
       <c r="K38">
-        <v>387.5</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2552.6999999999998</v>
+        <v>356.29399999999998</v>
       </c>
       <c r="O38">
-        <v>8035</v>
+        <v>1160.5329999999999</v>
       </c>
       <c r="P38">
-        <v>5054.5</v>
+        <v>399.58</v>
       </c>
       <c r="Q38">
-        <v>121.7</v>
+        <v>-12.981999999999999</v>
       </c>
       <c r="R38">
-        <v>43772</v>
+        <v>40118</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>5984.2</v>
+        <v>1143.452</v>
       </c>
       <c r="U38">
-        <v>555.20000000000005</v>
+        <v>356.61399999999998</v>
       </c>
       <c r="V38">
-        <v>113.9</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="W38">
-        <v>-2.8</v>
+        <v>-1.9610000000000001</v>
       </c>
       <c r="X38">
-        <v>94.8</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="Y38">
-        <v>1528.6</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>209.2</v>
+        <v>83.619</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43863</v>
+        <v>40209</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-67.400000000000006</v>
+        <v>27.023</v>
       </c>
       <c r="D39">
-        <v>2600.8000000000002</v>
+        <v>614.58299999999997</v>
       </c>
       <c r="E39">
-        <v>741.4</v>
+        <v>188.84399999999999</v>
       </c>
       <c r="F39">
-        <v>1397.9</v>
+        <v>307.34699999999998</v>
       </c>
       <c r="G39">
-        <v>3394.2</v>
+        <v>994.88300000000004</v>
       </c>
       <c r="H39">
-        <v>13631</v>
+        <v>2339.6790000000001</v>
       </c>
       <c r="I39">
-        <v>882.8</v>
+        <v>108.494</v>
       </c>
       <c r="J39">
-        <v>2694.3</v>
+        <v>399.584</v>
       </c>
       <c r="K39">
-        <v>49.6</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2361.1</v>
+        <v>362.88099999999997</v>
       </c>
       <c r="O39">
-        <v>7821.5</v>
+        <v>1171.126</v>
       </c>
       <c r="P39">
-        <v>4673.2</v>
+        <v>399.584</v>
       </c>
       <c r="Q39">
-        <v>-51.8</v>
+        <v>124.268</v>
       </c>
       <c r="R39">
-        <v>43863</v>
+        <v>40209</v>
       </c>
       <c r="S39">
-        <v>21500</v>
+        <v>5300</v>
       </c>
       <c r="T39">
-        <v>5809.5</v>
+        <v>1168.5530000000001</v>
       </c>
       <c r="U39">
-        <v>503.4</v>
+        <v>480.88200000000001</v>
       </c>
       <c r="V39">
-        <v>588.5</v>
+        <v>133.286</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-1.9650000000000001</v>
       </c>
       <c r="X39">
-        <v>-502.6</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="Y39">
-        <v>1541.9</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-25.2</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-67.400000000000006</v>
+        <v>27.023</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43954</v>
+        <v>40300</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-1096.8</v>
+        <v>-27.613</v>
       </c>
       <c r="D40">
-        <v>1344</v>
+        <v>619.04399999999998</v>
       </c>
       <c r="E40">
-        <v>545.6</v>
+        <v>233.47300000000001</v>
       </c>
       <c r="F40">
-        <v>665.9</v>
+        <v>317.03300000000002</v>
       </c>
       <c r="G40">
-        <v>3188.3</v>
+        <v>1376.3869999999999</v>
       </c>
       <c r="H40">
-        <v>12294.2</v>
+        <v>2730.0169999999998</v>
       </c>
       <c r="I40">
-        <v>783.9</v>
+        <v>99.971000000000004</v>
       </c>
       <c r="J40">
-        <v>2856.9</v>
+        <v>399.58800000000002</v>
       </c>
       <c r="K40">
-        <v>322.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2321.6</v>
+        <v>397.46800000000002</v>
       </c>
       <c r="O40">
-        <v>7783.2</v>
+        <v>1216.769</v>
       </c>
       <c r="P40">
-        <v>5110.6000000000004</v>
+        <v>399.58800000000002</v>
       </c>
       <c r="Q40">
-        <v>297.3</v>
+        <v>310.71300000000002</v>
       </c>
       <c r="R40">
-        <v>43954</v>
+        <v>40300</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4511</v>
+        <v>1513.248</v>
       </c>
       <c r="U40">
-        <v>800.7</v>
+        <v>791.59500000000003</v>
       </c>
       <c r="V40">
-        <v>-142.80000000000001</v>
+        <v>-40.606000000000002</v>
       </c>
       <c r="W40">
-        <v>-2.7</v>
+        <v>-4.1740000000000004</v>
       </c>
       <c r="X40">
-        <v>336.4</v>
+        <v>367.40499999999997</v>
       </c>
       <c r="Y40">
-        <v>1508.2</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1096.8</v>
+        <v>-27.613</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44045</v>
+        <v>40391</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-51.4</v>
+        <v>-70.623999999999995</v>
       </c>
       <c r="D41">
-        <v>1580.7</v>
+        <v>1103.268</v>
       </c>
       <c r="E41">
-        <v>568.79999999999995</v>
+        <v>291.46499999999997</v>
       </c>
       <c r="F41">
-        <v>883.3</v>
+        <v>575.24099999999999</v>
       </c>
       <c r="G41">
-        <v>3846.8</v>
+        <v>1683.9929999999999</v>
       </c>
       <c r="H41">
-        <v>13252.5</v>
+        <v>6520.41</v>
       </c>
       <c r="I41">
-        <v>1048.2</v>
+        <v>314.82100000000003</v>
       </c>
       <c r="J41">
-        <v>3501.2</v>
+        <v>2491.6350000000002</v>
       </c>
       <c r="K41">
-        <v>70.599999999999994</v>
+        <v>4.617</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2526.1</v>
+        <v>786.92899999999997</v>
       </c>
       <c r="O41">
-        <v>8671.7000000000007</v>
+        <v>4324.8419999999996</v>
       </c>
       <c r="P41">
-        <v>5566.7</v>
+        <v>2496.252</v>
       </c>
       <c r="Q41">
-        <v>593.6</v>
+        <v>-316.255</v>
       </c>
       <c r="R41">
-        <v>44045</v>
+        <v>40391</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4580.8</v>
+        <v>2195.5680000000002</v>
       </c>
       <c r="U41">
-        <v>1394.3</v>
+        <v>475.34</v>
       </c>
       <c r="V41">
-        <v>390.8</v>
+        <v>137.53700000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>218.7</v>
+        <v>2199.5140000000001</v>
       </c>
       <c r="Y41">
-        <v>1546.1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-51.4</v>
+        <v>-70.623999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44136</v>
+        <v>40482</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>99.847999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1516.4190000000001</v>
+      </c>
+      <c r="E42">
+        <v>541.55399999999997</v>
+      </c>
+      <c r="F42">
+        <v>793.46699999999998</v>
+      </c>
+      <c r="G42">
+        <v>1914.579</v>
+      </c>
+      <c r="H42">
+        <v>6889.5389999999998</v>
+      </c>
+      <c r="I42">
+        <v>307.74299999999999</v>
+      </c>
+      <c r="J42">
+        <v>2523.9160000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>855.95799999999997</v>
+      </c>
+      <c r="O42">
+        <v>4474.3810000000003</v>
+      </c>
+      <c r="P42">
+        <v>2523.9160000000002</v>
+      </c>
+      <c r="Q42">
+        <v>16.097000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40482</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2415.1579999999999</v>
+      </c>
+      <c r="U42">
+        <v>491.43700000000001</v>
+      </c>
+      <c r="V42">
+        <v>43.908999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>99.847999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40573</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>52.194000000000003</v>
+      </c>
+      <c r="D43">
+        <v>1398.117</v>
+      </c>
+      <c r="E43">
+        <v>433.9</v>
+      </c>
+      <c r="F43">
+        <v>738.79300000000001</v>
+      </c>
+      <c r="G43">
+        <v>1835.289</v>
+      </c>
+      <c r="H43">
+        <v>6784.35</v>
+      </c>
+      <c r="I43">
+        <v>335.48200000000003</v>
+      </c>
+      <c r="J43">
+        <v>2364.002</v>
+      </c>
+      <c r="K43">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>931.255</v>
+      </c>
+      <c r="O43">
+        <v>4341.8059999999996</v>
+      </c>
+      <c r="P43">
+        <v>2393.761</v>
+      </c>
+      <c r="Q43">
+        <v>7.2809999999999997</v>
+      </c>
+      <c r="R43">
+        <v>40573</v>
+      </c>
+      <c r="S43">
+        <v>10500</v>
+      </c>
+      <c r="T43">
+        <v>2442.5439999999999</v>
+      </c>
+      <c r="U43">
+        <v>498.71800000000002</v>
+      </c>
+      <c r="V43">
+        <v>218.33099999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-146.065</v>
+      </c>
+      <c r="Y43">
+        <v>24.890999999999998</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>52.194000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>57.667000000000002</v>
+      </c>
+      <c r="D44">
+        <v>1369.184</v>
+      </c>
+      <c r="E44">
+        <v>502.416</v>
+      </c>
+      <c r="F44">
+        <v>728.57899999999995</v>
+      </c>
+      <c r="G44">
+        <v>1658.3440000000001</v>
+      </c>
+      <c r="H44">
+        <v>6834.0519999999997</v>
+      </c>
+      <c r="I44">
+        <v>262.22500000000002</v>
+      </c>
+      <c r="J44">
+        <v>2208.1909999999998</v>
+      </c>
+      <c r="K44">
+        <v>12.276999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-211.779</v>
+      </c>
+      <c r="N44">
+        <v>856.54</v>
+      </c>
+      <c r="O44">
+        <v>4163.0630000000001</v>
+      </c>
+      <c r="P44">
+        <v>2266.7660000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-203.76</v>
+      </c>
+      <c r="R44">
+        <v>40664</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2670.989</v>
+      </c>
+      <c r="U44">
+        <v>294.95800000000003</v>
+      </c>
+      <c r="V44">
+        <v>-9.5190000000000001</v>
+      </c>
+      <c r="W44">
+        <v>-5.4139999999999997</v>
+      </c>
+      <c r="X44">
+        <v>-151.626</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-10.35</v>
+      </c>
+      <c r="AA44">
+        <v>57.667000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>66.728999999999999</v>
+      </c>
+      <c r="D45">
+        <v>1334.444</v>
+      </c>
+      <c r="E45">
+        <v>402.73599999999999</v>
+      </c>
+      <c r="F45">
+        <v>724.13199999999995</v>
+      </c>
+      <c r="G45">
+        <v>1740.8420000000001</v>
+      </c>
+      <c r="H45">
+        <v>6870.1490000000003</v>
+      </c>
+      <c r="I45">
+        <v>351.74799999999999</v>
+      </c>
+      <c r="J45">
+        <v>2090.0619999999999</v>
+      </c>
+      <c r="K45">
+        <v>13.006</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>972.19200000000001</v>
+      </c>
+      <c r="O45">
+        <v>4158.9440000000004</v>
+      </c>
+      <c r="P45">
+        <v>2154.884</v>
+      </c>
+      <c r="Q45">
+        <v>-7.2670000000000003</v>
+      </c>
+      <c r="R45">
+        <v>40755</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2711.2049999999999</v>
+      </c>
+      <c r="U45">
+        <v>287.69099999999997</v>
+      </c>
+      <c r="V45">
+        <v>150.50800000000001</v>
+      </c>
+      <c r="W45">
+        <v>-0.02</v>
+      </c>
+      <c r="X45">
+        <v>-98.394999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-4.5</v>
+      </c>
+      <c r="AA45">
+        <v>66.728999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>112.239</v>
+      </c>
+      <c r="D46">
+        <v>1654.16</v>
+      </c>
+      <c r="E46">
+        <v>609.55200000000002</v>
+      </c>
+      <c r="F46">
+        <v>828.96799999999996</v>
+      </c>
+      <c r="G46">
+        <v>1774.04</v>
+      </c>
+      <c r="H46">
+        <v>6896.3649999999998</v>
+      </c>
+      <c r="I46">
+        <v>298.43099999999998</v>
+      </c>
+      <c r="J46">
+        <v>2030.4449999999999</v>
+      </c>
+      <c r="K46">
+        <v>12.82</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>983.67600000000004</v>
+      </c>
+      <c r="O46">
+        <v>4121.4719999999998</v>
+      </c>
+      <c r="P46">
+        <v>2104.3760000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-127.71</v>
+      </c>
+      <c r="R46">
+        <v>40846</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2774.893</v>
+      </c>
+      <c r="U46">
+        <v>159.98099999999999</v>
+      </c>
+      <c r="V46">
+        <v>32.350999999999999</v>
+      </c>
+      <c r="W46">
+        <v>-2.7189999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-43.15</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-33.85</v>
+      </c>
+      <c r="AA46">
+        <v>112.239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>39.061999999999998</v>
+      </c>
+      <c r="D47">
+        <v>1532.836</v>
+      </c>
+      <c r="E47">
+        <v>467.62799999999999</v>
+      </c>
+      <c r="F47">
+        <v>781.83699999999999</v>
+      </c>
+      <c r="G47">
+        <v>1739.2349999999999</v>
+      </c>
+      <c r="H47">
+        <v>6752.3609999999999</v>
+      </c>
+      <c r="I47">
+        <v>366.13799999999998</v>
+      </c>
+      <c r="J47">
+        <v>1832.925</v>
+      </c>
+      <c r="K47">
+        <v>13.04</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1043.8710000000001</v>
+      </c>
+      <c r="O47">
+        <v>4036.9119999999998</v>
+      </c>
+      <c r="P47">
+        <v>1942.6690000000001</v>
+      </c>
+      <c r="Q47">
+        <v>73.215999999999994</v>
+      </c>
+      <c r="R47">
+        <v>40937</v>
+      </c>
+      <c r="S47">
+        <v>10900</v>
+      </c>
+      <c r="T47">
+        <v>2715.4490000000001</v>
+      </c>
+      <c r="U47">
+        <v>233.197</v>
+      </c>
+      <c r="V47">
+        <v>317.38099999999997</v>
+      </c>
+      <c r="W47">
+        <v>-2.7210000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-150.49</v>
+      </c>
+      <c r="Y47">
+        <v>26.753</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>39.061999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>95.475999999999999</v>
+      </c>
+      <c r="D48">
+        <v>1427.4059999999999</v>
+      </c>
+      <c r="E48">
+        <v>530.77099999999996</v>
+      </c>
+      <c r="F48">
+        <v>756.82899999999995</v>
+      </c>
+      <c r="G48">
+        <v>1727.953</v>
+      </c>
+      <c r="H48">
+        <v>6780.3969999999999</v>
+      </c>
+      <c r="I48">
+        <v>255.50700000000001</v>
+      </c>
+      <c r="J48">
+        <v>1794.8620000000001</v>
+      </c>
+      <c r="K48">
+        <v>107.393</v>
+      </c>
+      <c r="L48">
+        <v>-0.64700000000000002</v>
+      </c>
+      <c r="M48">
+        <v>-32.738999999999997</v>
+      </c>
+      <c r="N48">
+        <v>981.89300000000003</v>
+      </c>
+      <c r="O48">
+        <v>3951.0880000000002</v>
+      </c>
+      <c r="P48">
+        <v>2019.0319999999999</v>
+      </c>
+      <c r="Q48">
+        <v>5.415</v>
+      </c>
+      <c r="R48">
+        <v>41028</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2829.3090000000002</v>
+      </c>
+      <c r="U48">
+        <v>238.61199999999999</v>
+      </c>
+      <c r="V48">
+        <v>-0.50800000000000001</v>
+      </c>
+      <c r="W48">
+        <v>-5.4829999999999997</v>
+      </c>
+      <c r="X48">
+        <v>56.598999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>95.475999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>89.918000000000006</v>
+      </c>
+      <c r="D49">
+        <v>1336.623</v>
+      </c>
+      <c r="E49">
+        <v>411.38099999999997</v>
+      </c>
+      <c r="F49">
+        <v>742.66099999999994</v>
+      </c>
+      <c r="G49">
+        <v>1819.9380000000001</v>
+      </c>
+      <c r="H49">
+        <v>6731.4880000000003</v>
+      </c>
+      <c r="I49">
+        <v>372.53100000000001</v>
+      </c>
+      <c r="J49">
+        <v>1715.4639999999999</v>
+      </c>
+      <c r="K49">
+        <v>52.790999999999997</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1109.393</v>
+      </c>
+      <c r="O49">
+        <v>3950.288</v>
+      </c>
+      <c r="P49">
+        <v>1891.6759999999999</v>
+      </c>
+      <c r="Q49">
+        <v>23.373999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41119</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2781.2</v>
+      </c>
+      <c r="U49">
+        <v>261.98599999999999</v>
+      </c>
+      <c r="V49">
+        <v>207.80600000000001</v>
+      </c>
+      <c r="W49">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="X49">
+        <v>-119.85599999999999</v>
+      </c>
+      <c r="Y49">
+        <v>35.4</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>89.918000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>167.69800000000001</v>
+      </c>
+      <c r="D50">
+        <v>1642.77</v>
+      </c>
+      <c r="E50">
+        <v>587.60299999999995</v>
+      </c>
+      <c r="F50">
+        <v>869.08399999999995</v>
+      </c>
+      <c r="G50">
+        <v>1912.1189999999999</v>
+      </c>
+      <c r="H50">
+        <v>6985.9709999999995</v>
+      </c>
+      <c r="I50">
+        <v>300.46800000000002</v>
+      </c>
+      <c r="J50">
+        <v>1647.596</v>
+      </c>
+      <c r="K50">
+        <v>142.51400000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1139.9659999999999</v>
+      </c>
+      <c r="O50">
+        <v>3939.3470000000002</v>
+      </c>
+      <c r="P50">
+        <v>1909.31</v>
+      </c>
+      <c r="Q50">
+        <v>14.644</v>
+      </c>
+      <c r="R50">
+        <v>41210</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3046.6239999999998</v>
+      </c>
+      <c r="U50">
+        <v>276.63</v>
+      </c>
+      <c r="V50">
+        <v>78.08</v>
+      </c>
+      <c r="W50">
+        <v>-2.7469999999999999</v>
+      </c>
+      <c r="X50">
+        <v>10.007999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Z50">
+        <v>-1.9</v>
+      </c>
+      <c r="AA50">
+        <v>167.69800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41308</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>80.748000000000005</v>
+      </c>
+      <c r="D51">
+        <v>1636.2</v>
+      </c>
+      <c r="E51">
+        <v>418.25099999999998</v>
+      </c>
+      <c r="F51">
+        <v>880.65599999999995</v>
+      </c>
+      <c r="G51">
+        <v>2437.0059999999999</v>
+      </c>
+      <c r="H51">
+        <v>7731.6869999999999</v>
+      </c>
+      <c r="I51">
+        <v>377.23099999999999</v>
+      </c>
+      <c r="J51">
+        <v>2211.6419999999998</v>
+      </c>
+      <c r="K51">
+        <v>10.847</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1162.4469999999999</v>
+      </c>
+      <c r="O51">
+        <v>4479.1180000000004</v>
+      </c>
+      <c r="P51">
+        <v>2341.549</v>
+      </c>
+      <c r="Q51">
+        <v>615.57899999999995</v>
+      </c>
+      <c r="R51">
+        <v>41308</v>
+      </c>
+      <c r="S51">
+        <v>11800</v>
+      </c>
+      <c r="T51">
+        <v>3252.569</v>
+      </c>
+      <c r="U51">
+        <v>892.20899999999995</v>
+      </c>
+      <c r="V51">
+        <v>284.15899999999999</v>
+      </c>
+      <c r="W51">
+        <v>-2.7480000000000002</v>
+      </c>
+      <c r="X51">
+        <v>438.06400000000002</v>
+      </c>
+      <c r="Y51">
+        <v>31.06</v>
+      </c>
+      <c r="Z51">
+        <v>-6.4640000000000004</v>
+      </c>
+      <c r="AA51">
+        <v>80.748000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41399</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-10.3</v>
+      </c>
+      <c r="D52">
+        <v>1910.2</v>
+      </c>
+      <c r="E52">
+        <v>771.50300000000004</v>
+      </c>
+      <c r="F52">
+        <v>951.9</v>
+      </c>
+      <c r="G52">
+        <v>3082.451</v>
+      </c>
+      <c r="H52">
+        <v>11607.284</v>
+      </c>
+      <c r="I52">
+        <v>418.459</v>
+      </c>
+      <c r="J52">
+        <v>4362.3379999999997</v>
+      </c>
+      <c r="K52">
+        <v>14.724</v>
+      </c>
+      <c r="L52">
+        <v>-23</v>
+      </c>
+      <c r="M52">
+        <v>-1099.4000000000001</v>
+      </c>
+      <c r="N52">
+        <v>1287.703</v>
+      </c>
+      <c r="O52">
+        <v>7487.8490000000002</v>
+      </c>
+      <c r="P52">
+        <v>4505.9120000000003</v>
+      </c>
+      <c r="Q52">
+        <v>-145.9</v>
+      </c>
+      <c r="R52">
+        <v>41399</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4119.4350000000004</v>
+      </c>
+      <c r="U52">
+        <v>746.28099999999995</v>
+      </c>
+      <c r="V52">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-6.1</v>
+      </c>
+      <c r="X52">
+        <v>1853.4</v>
+      </c>
+      <c r="Y52">
+        <v>30.1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41490</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-5.4</v>
+      </c>
+      <c r="D53">
+        <v>1964.8</v>
+      </c>
+      <c r="E53">
+        <v>712.05700000000002</v>
+      </c>
+      <c r="F53">
+        <v>1026.0999999999999</v>
+      </c>
+      <c r="G53">
+        <v>3080.645</v>
+      </c>
+      <c r="H53">
+        <v>11514.745999999999</v>
+      </c>
+      <c r="I53">
+        <v>552.221</v>
+      </c>
+      <c r="J53">
+        <v>4195.1509999999998</v>
+      </c>
+      <c r="K53">
+        <v>3.4470000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1425.202</v>
+      </c>
+      <c r="O53">
+        <v>7461.3860000000004</v>
+      </c>
+      <c r="P53">
+        <v>4310.598</v>
+      </c>
+      <c r="Q53">
+        <v>-117.4</v>
+      </c>
+      <c r="R53">
+        <v>41490</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4053.36</v>
+      </c>
+      <c r="U53">
+        <v>628.91999999999996</v>
+      </c>
+      <c r="V53">
+        <v>179</v>
+      </c>
+      <c r="W53">
+        <v>-3.1</v>
+      </c>
+      <c r="X53">
+        <v>-220.9</v>
+      </c>
+      <c r="Y53">
+        <v>27</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>196.7</v>
+      </c>
+      <c r="D54">
+        <v>2259.1</v>
+      </c>
+      <c r="E54">
+        <v>880.16</v>
+      </c>
+      <c r="F54">
+        <v>1171.8</v>
+      </c>
+      <c r="G54">
+        <v>3064.953</v>
+      </c>
+      <c r="H54">
+        <v>11651.62</v>
+      </c>
+      <c r="I54">
+        <v>435.91699999999997</v>
+      </c>
+      <c r="J54">
+        <v>4174.5519999999997</v>
+      </c>
+      <c r="K54">
+        <v>12.441000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1301.912</v>
+      </c>
+      <c r="O54">
+        <v>7310.4530000000004</v>
+      </c>
+      <c r="P54">
+        <v>4300.9930000000004</v>
+      </c>
+      <c r="Q54">
+        <v>-86.4</v>
+      </c>
+      <c r="R54">
+        <v>41581</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4341.1670000000004</v>
+      </c>
+      <c r="U54">
+        <v>542.53300000000002</v>
+      </c>
+      <c r="V54">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="W54">
+        <v>-3.1</v>
+      </c>
+      <c r="X54">
+        <v>-10.7</v>
+      </c>
+      <c r="Y54">
+        <v>29</v>
+      </c>
+      <c r="Z54">
+        <v>-3.5</v>
+      </c>
+      <c r="AA54">
+        <v>196.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-37.5</v>
+      </c>
+      <c r="D55">
+        <v>2052.3000000000002</v>
+      </c>
+      <c r="E55">
+        <v>730.3</v>
+      </c>
+      <c r="F55">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="G55">
+        <v>2998.6</v>
+      </c>
+      <c r="H55">
+        <v>11575.6</v>
+      </c>
+      <c r="I55">
+        <v>582.9</v>
+      </c>
+      <c r="J55">
+        <v>3878.2</v>
+      </c>
+      <c r="K55">
+        <v>6.8</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1552.4</v>
+      </c>
+      <c r="O55">
+        <v>7234.8</v>
+      </c>
+      <c r="P55">
+        <v>3995.3</v>
+      </c>
+      <c r="Q55">
+        <v>50.7</v>
+      </c>
+      <c r="R55">
+        <v>41672</v>
+      </c>
+      <c r="S55">
+        <v>16700</v>
+      </c>
+      <c r="T55">
+        <v>4340.8</v>
+      </c>
+      <c r="U55">
+        <v>593.20000000000005</v>
+      </c>
+      <c r="V55">
+        <v>376.4</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-267</v>
+      </c>
+      <c r="Y55">
+        <v>25.3</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41763</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D56">
+        <v>1963.7</v>
+      </c>
+      <c r="E56">
+        <v>817.4</v>
+      </c>
+      <c r="F56">
+        <v>1033.2</v>
+      </c>
+      <c r="G56">
+        <v>2927.3</v>
+      </c>
+      <c r="H56">
+        <v>11629</v>
+      </c>
+      <c r="I56">
+        <v>428.7</v>
+      </c>
+      <c r="J56">
+        <v>3862</v>
+      </c>
+      <c r="K56">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-669.8</v>
+      </c>
+      <c r="N56">
+        <v>1466.4</v>
+      </c>
+      <c r="O56">
+        <v>7149.5</v>
+      </c>
+      <c r="P56">
+        <v>4131.1000000000004</v>
+      </c>
+      <c r="Q56">
+        <v>-80.2</v>
+      </c>
+      <c r="R56">
+        <v>41763</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4479.5</v>
+      </c>
+      <c r="U56">
+        <v>513</v>
+      </c>
+      <c r="V56">
+        <v>-51.4</v>
+      </c>
+      <c r="W56">
+        <v>-3.1</v>
+      </c>
+      <c r="X56">
+        <v>52.8</v>
+      </c>
+      <c r="Y56">
+        <v>25</v>
+      </c>
+      <c r="Z56">
+        <v>-26.2</v>
+      </c>
+      <c r="AA56">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>126.5</v>
+      </c>
+      <c r="D57">
+        <v>1975.6</v>
+      </c>
+      <c r="E57">
+        <v>730.1</v>
+      </c>
+      <c r="F57">
+        <v>1054.7</v>
+      </c>
+      <c r="G57">
+        <v>2994.5</v>
+      </c>
+      <c r="H57">
+        <v>11585.3</v>
+      </c>
+      <c r="I57">
+        <v>576.70000000000005</v>
+      </c>
+      <c r="J57">
+        <v>3642.9</v>
+      </c>
+      <c r="K57">
+        <v>165.2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1604.1</v>
+      </c>
+      <c r="O57">
+        <v>7055</v>
+      </c>
+      <c r="P57">
+        <v>3929.4</v>
+      </c>
+      <c r="Q57">
+        <v>-51.9</v>
+      </c>
+      <c r="R57">
+        <v>41854</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4530.3</v>
+      </c>
+      <c r="U57">
+        <v>461.1</v>
+      </c>
+      <c r="V57">
+        <v>221.6</v>
+      </c>
+      <c r="W57">
+        <v>-6.3</v>
+      </c>
+      <c r="X57">
+        <v>-206.1</v>
+      </c>
+      <c r="Y57">
+        <v>22</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>225.7</v>
+      </c>
+      <c r="D58">
+        <v>2233.1</v>
+      </c>
+      <c r="E58">
+        <v>879.7</v>
+      </c>
+      <c r="F58">
+        <v>1167.5</v>
+      </c>
+      <c r="G58">
+        <v>2866.7</v>
+      </c>
+      <c r="H58">
+        <v>11265.7</v>
+      </c>
+      <c r="I58">
+        <v>476.2</v>
+      </c>
+      <c r="J58">
+        <v>3618.7</v>
+      </c>
+      <c r="K58">
+        <v>39.9</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1378.7</v>
+      </c>
+      <c r="O58">
+        <v>6681.9</v>
+      </c>
+      <c r="P58">
+        <v>3778.9</v>
+      </c>
+      <c r="Q58">
+        <v>-96</v>
+      </c>
+      <c r="R58">
+        <v>41945</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>4583.8</v>
+      </c>
+      <c r="U58">
+        <v>365.1</v>
+      </c>
+      <c r="V58">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="W58">
+        <v>-3.1</v>
+      </c>
+      <c r="X58">
+        <v>-151.5</v>
+      </c>
+      <c r="Y58">
+        <v>21</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>225.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>51.5</v>
+      </c>
+      <c r="D59">
+        <v>2068.8000000000002</v>
+      </c>
+      <c r="E59">
+        <v>705.7</v>
+      </c>
+      <c r="F59">
+        <v>1072.3</v>
+      </c>
+      <c r="G59">
+        <v>2785.8</v>
+      </c>
+      <c r="H59">
+        <v>10824.9</v>
+      </c>
+      <c r="I59">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="J59">
+        <v>3438.7</v>
+      </c>
+      <c r="K59">
+        <v>8.5</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1428.1</v>
+      </c>
+      <c r="O59">
+        <v>6460.6</v>
+      </c>
+      <c r="P59">
+        <v>3546.5</v>
+      </c>
+      <c r="Q59">
+        <v>114.2</v>
+      </c>
+      <c r="R59">
+        <v>42036</v>
+      </c>
+      <c r="S59">
+        <v>17600</v>
+      </c>
+      <c r="T59">
+        <v>4364.3</v>
+      </c>
+      <c r="U59">
+        <v>479.3</v>
+      </c>
+      <c r="V59">
+        <v>465.2</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-209.7</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>114.1</v>
+      </c>
+      <c r="D60">
+        <v>1879.3</v>
+      </c>
+      <c r="E60">
+        <v>733.6</v>
+      </c>
+      <c r="F60">
+        <v>985.6</v>
+      </c>
+      <c r="G60">
+        <v>2735.7</v>
+      </c>
+      <c r="H60">
+        <v>10772.4</v>
+      </c>
+      <c r="I60">
+        <v>411.7</v>
+      </c>
+      <c r="J60">
+        <v>3389.7</v>
+      </c>
+      <c r="K60">
+        <v>10.6</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-51.7</v>
+      </c>
+      <c r="N60">
+        <v>1227.5999999999999</v>
+      </c>
+      <c r="O60">
+        <v>6327.9</v>
+      </c>
+      <c r="P60">
+        <v>3518.6</v>
+      </c>
+      <c r="Q60">
+        <v>-60</v>
+      </c>
+      <c r="R60">
+        <v>42127</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4444.5</v>
+      </c>
+      <c r="U60">
+        <v>419.3</v>
+      </c>
+      <c r="V60">
+        <v>60.4</v>
+      </c>
+      <c r="W60">
+        <v>-6.2</v>
+      </c>
+      <c r="X60">
+        <v>-59.5</v>
+      </c>
+      <c r="Y60">
+        <v>19</v>
+      </c>
+      <c r="Z60">
+        <v>-22.4</v>
+      </c>
+      <c r="AA60">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>102.2</v>
+      </c>
+      <c r="D61">
+        <v>1864</v>
+      </c>
+      <c r="E61">
+        <v>590.20000000000005</v>
+      </c>
+      <c r="F61">
+        <v>1002.1</v>
+      </c>
+      <c r="G61">
+        <v>2819.8</v>
+      </c>
+      <c r="H61">
+        <v>10745</v>
+      </c>
+      <c r="I61">
+        <v>551</v>
+      </c>
+      <c r="J61">
+        <v>3262.2</v>
+      </c>
+      <c r="K61">
+        <v>8.1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1369</v>
+      </c>
+      <c r="O61">
+        <v>6335.2</v>
+      </c>
+      <c r="P61">
+        <v>3399</v>
+      </c>
+      <c r="Q61">
+        <v>47.4</v>
+      </c>
+      <c r="R61">
+        <v>42218</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4409.8</v>
+      </c>
+      <c r="U61">
+        <v>466.7</v>
+      </c>
+      <c r="V61">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="W61">
+        <v>-3.2</v>
+      </c>
+      <c r="X61">
+        <v>-137.9</v>
+      </c>
+      <c r="Y61">
+        <v>17</v>
+      </c>
+      <c r="Z61">
+        <v>-0.2</v>
+      </c>
+      <c r="AA61">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>221.9</v>
+      </c>
+      <c r="D62">
+        <v>2164.5</v>
+      </c>
+      <c r="E62">
+        <v>824.3</v>
+      </c>
+      <c r="F62">
+        <v>1101</v>
+      </c>
+      <c r="G62">
+        <v>2858.2</v>
+      </c>
+      <c r="H62">
+        <v>10805.4</v>
+      </c>
+      <c r="I62">
+        <v>495.3</v>
+      </c>
+      <c r="J62">
+        <v>3215.5</v>
+      </c>
+      <c r="K62">
+        <v>27.6</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1366.4</v>
+      </c>
+      <c r="O62">
+        <v>6259.8</v>
+      </c>
+      <c r="P62">
+        <v>3367.2</v>
+      </c>
+      <c r="Q62">
+        <v>-96.8</v>
+      </c>
+      <c r="R62">
+        <v>42309</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4545.6000000000004</v>
+      </c>
+      <c r="U62">
+        <v>369.9</v>
+      </c>
+      <c r="V62">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="W62">
+        <v>-3.1</v>
+      </c>
+      <c r="X62">
+        <v>-78.7</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-4</v>
+      </c>
+      <c r="AA62">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="D63">
+        <v>2112.5</v>
+      </c>
+      <c r="E63">
+        <v>657.2</v>
+      </c>
+      <c r="F63">
+        <v>1072.9000000000001</v>
+      </c>
+      <c r="G63">
+        <v>2804.5</v>
+      </c>
+      <c r="H63">
+        <v>10673.8</v>
+      </c>
+      <c r="I63">
+        <v>636.1</v>
+      </c>
+      <c r="J63">
+        <v>3052.3</v>
+      </c>
+      <c r="K63">
+        <v>25.9</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1527.2</v>
+      </c>
+      <c r="O63">
+        <v>6121.5</v>
+      </c>
+      <c r="P63">
+        <v>3229.4</v>
+      </c>
+      <c r="Q63">
+        <v>186.5</v>
+      </c>
+      <c r="R63">
+        <v>42400</v>
+      </c>
+      <c r="S63">
+        <v>18200</v>
+      </c>
+      <c r="T63">
+        <v>4552.3</v>
+      </c>
+      <c r="U63">
+        <v>556.4</v>
+      </c>
+      <c r="V63">
+        <v>511.5</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-202.3</v>
+      </c>
+      <c r="Y63">
+        <v>14.6</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>231.6</v>
+      </c>
+      <c r="D64">
+        <v>1917.8</v>
+      </c>
+      <c r="E64">
+        <v>661.5</v>
+      </c>
+      <c r="F64">
+        <v>1006.9</v>
+      </c>
+      <c r="G64">
+        <v>2528.1999999999998</v>
+      </c>
+      <c r="H64">
+        <v>10885.1</v>
+      </c>
+      <c r="I64">
+        <v>497.7</v>
+      </c>
+      <c r="J64">
+        <v>2991.6</v>
+      </c>
+      <c r="K64">
+        <v>41</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-53.9</v>
+      </c>
+      <c r="N64">
+        <v>1394.9</v>
+      </c>
+      <c r="O64">
+        <v>6022.8</v>
+      </c>
+      <c r="P64">
+        <v>3159.3</v>
+      </c>
+      <c r="Q64">
+        <v>-191.3</v>
+      </c>
+      <c r="R64">
+        <v>42491</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4862.3</v>
+      </c>
+      <c r="U64">
+        <v>365.1</v>
+      </c>
+      <c r="V64">
+        <v>109.3</v>
+      </c>
+      <c r="W64">
+        <v>-6.2</v>
+      </c>
+      <c r="X64">
+        <v>-97.2</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-1.5</v>
+      </c>
+      <c r="AA64">
+        <v>231.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>90.5</v>
+      </c>
+      <c r="D65">
+        <v>1933.3</v>
+      </c>
+      <c r="E65">
+        <v>569.6</v>
+      </c>
+      <c r="F65">
+        <v>1033.8</v>
+      </c>
+      <c r="G65">
+        <v>2939</v>
+      </c>
+      <c r="H65">
+        <v>11179.8</v>
+      </c>
+      <c r="I65">
+        <v>631.79999999999995</v>
+      </c>
+      <c r="J65">
+        <v>3358.2</v>
+      </c>
+      <c r="K65">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1388.2</v>
+      </c>
+      <c r="O65">
+        <v>6376.2</v>
+      </c>
+      <c r="P65">
+        <v>3377.6</v>
+      </c>
+      <c r="Q65">
+        <v>376.6</v>
+      </c>
+      <c r="R65">
+        <v>42582</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4803.6000000000004</v>
+      </c>
+      <c r="U65">
+        <v>741.7</v>
+      </c>
+      <c r="V65">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="W65">
+        <v>-3</v>
+      </c>
+      <c r="X65">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42673</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>126.2</v>
+      </c>
+      <c r="D66">
+        <v>2244.3000000000002</v>
+      </c>
+      <c r="E66">
+        <v>765.4</v>
+      </c>
+      <c r="F66">
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="G66">
+        <v>2948.1</v>
+      </c>
+      <c r="H66">
+        <v>11068.6</v>
+      </c>
+      <c r="I66">
+        <v>496.5</v>
+      </c>
+      <c r="J66">
+        <v>3303.1</v>
+      </c>
+      <c r="K66">
+        <v>20.8</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1356.4</v>
+      </c>
+      <c r="O66">
+        <v>6273.1</v>
+      </c>
+      <c r="P66">
+        <v>3323.9</v>
+      </c>
+      <c r="Q66">
+        <v>-79.3</v>
+      </c>
+      <c r="R66">
+        <v>42673</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4795.5</v>
+      </c>
+      <c r="U66">
+        <v>662.4</v>
+      </c>
+      <c r="V66">
+        <v>168.1</v>
+      </c>
+      <c r="W66">
+        <v>-3</v>
+      </c>
+      <c r="X66">
+        <v>-145.9</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-23.2</v>
+      </c>
+      <c r="AA66">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42764</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>100.7</v>
+      </c>
+      <c r="D67">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="E67">
+        <v>616</v>
+      </c>
+      <c r="F67">
+        <v>1138</v>
+      </c>
+      <c r="G67">
+        <v>2879.6</v>
+      </c>
+      <c r="H67">
+        <v>11067.9</v>
+      </c>
+      <c r="I67">
+        <v>682.6</v>
+      </c>
+      <c r="J67">
+        <v>3197.4</v>
+      </c>
+      <c r="K67">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1564.8</v>
+      </c>
+      <c r="O67">
+        <v>6261.4</v>
+      </c>
+      <c r="P67">
+        <v>3223.5</v>
+      </c>
+      <c r="Q67">
+        <v>67.7</v>
+      </c>
+      <c r="R67">
+        <v>42764</v>
+      </c>
+      <c r="S67">
+        <v>18800</v>
+      </c>
+      <c r="T67">
+        <v>4806.5</v>
+      </c>
+      <c r="U67">
+        <v>730.1</v>
+      </c>
+      <c r="V67">
+        <v>378.4</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-192.8</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D68">
+        <v>1989</v>
+      </c>
+      <c r="E68">
+        <v>688.1</v>
+      </c>
+      <c r="F68">
+        <v>1080.8</v>
+      </c>
+      <c r="G68">
+        <v>2655.2</v>
+      </c>
+      <c r="H68">
+        <v>10912.3</v>
+      </c>
+      <c r="I68">
+        <v>546.70000000000005</v>
+      </c>
+      <c r="J68">
+        <v>3161.1</v>
+      </c>
+      <c r="K68">
+        <v>42.5</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-51.2</v>
+      </c>
+      <c r="N68">
+        <v>1378.2</v>
+      </c>
+      <c r="O68">
+        <v>6033.9</v>
+      </c>
+      <c r="P68">
+        <v>3219.6</v>
+      </c>
+      <c r="Q68">
+        <v>-239.2</v>
+      </c>
+      <c r="R68">
+        <v>42855</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4878.3999999999996</v>
+      </c>
+      <c r="U68">
+        <v>490.9</v>
+      </c>
+      <c r="V68">
+        <v>-57.4</v>
+      </c>
+      <c r="W68">
+        <v>-5.9</v>
+      </c>
+      <c r="X68">
+        <v>-94.3</v>
+      </c>
+      <c r="Y68">
+        <v>16</v>
+      </c>
+      <c r="Z68">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA68">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42946</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>119.7</v>
+      </c>
+      <c r="D69">
+        <v>2069.9</v>
+      </c>
+      <c r="E69">
+        <v>646.20000000000005</v>
+      </c>
+      <c r="F69">
+        <v>1147.3</v>
+      </c>
+      <c r="G69">
+        <v>2935.5</v>
+      </c>
+      <c r="H69">
+        <v>11453.9</v>
+      </c>
+      <c r="I69">
+        <v>767.1</v>
+      </c>
+      <c r="J69">
+        <v>3185.7</v>
+      </c>
+      <c r="K69">
+        <v>18</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1633.2</v>
+      </c>
+      <c r="O69">
+        <v>6355.6</v>
+      </c>
+      <c r="P69">
+        <v>3203.7</v>
+      </c>
+      <c r="Q69">
+        <v>68.5</v>
+      </c>
+      <c r="R69">
+        <v>42946</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5098.3</v>
+      </c>
+      <c r="U69">
+        <v>559.4</v>
+      </c>
+      <c r="V69">
+        <v>234.7</v>
+      </c>
+      <c r="W69">
+        <v>-3</v>
+      </c>
+      <c r="X69">
+        <v>-89.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-0.8</v>
+      </c>
+      <c r="AA69">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>239.2</v>
+      </c>
+      <c r="D70">
+        <v>2357</v>
+      </c>
+      <c r="E70">
+        <v>827.9</v>
+      </c>
+      <c r="F70">
+        <v>1297.3</v>
+      </c>
+      <c r="G70">
+        <v>3144.1</v>
+      </c>
+      <c r="H70">
+        <v>11658.2</v>
+      </c>
+      <c r="I70">
+        <v>681.3</v>
+      </c>
+      <c r="J70">
+        <v>3182.7</v>
+      </c>
+      <c r="K70">
+        <v>207.5</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1726.3</v>
+      </c>
+      <c r="O70">
+        <v>6405.8</v>
+      </c>
+      <c r="P70">
+        <v>3390.2</v>
+      </c>
+      <c r="Q70">
+        <v>52.9</v>
+      </c>
+      <c r="R70">
+        <v>43037</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5252.4</v>
+      </c>
+      <c r="U70">
+        <v>612.29999999999995</v>
+      </c>
+      <c r="V70">
+        <v>28.1</v>
+      </c>
+      <c r="W70">
+        <v>-2.9</v>
+      </c>
+      <c r="X70">
+        <v>118.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-2.5</v>
+      </c>
+      <c r="AA70">
+        <v>239.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>108.5</v>
+      </c>
+      <c r="D71">
+        <v>2498.9</v>
+      </c>
+      <c r="E71">
+        <v>658.5</v>
+      </c>
+      <c r="F71">
+        <v>1369</v>
+      </c>
+      <c r="G71">
+        <v>3030.8</v>
+      </c>
+      <c r="H71">
+        <v>11885.7</v>
+      </c>
+      <c r="I71">
+        <v>889.8</v>
+      </c>
+      <c r="J71">
+        <v>3061.3</v>
+      </c>
+      <c r="K71">
+        <v>19.5</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1871.6</v>
+      </c>
+      <c r="O71">
+        <v>6347.3</v>
+      </c>
+      <c r="P71">
+        <v>3096.9</v>
+      </c>
+      <c r="Q71">
+        <v>-118.4</v>
+      </c>
+      <c r="R71">
+        <v>43135</v>
+      </c>
+      <c r="S71">
+        <v>19600</v>
+      </c>
+      <c r="T71">
+        <v>5538.4</v>
+      </c>
+      <c r="U71">
+        <v>493.9</v>
+      </c>
+      <c r="V71">
+        <v>438.8</v>
+      </c>
+      <c r="W71">
+        <v>-0.1</v>
+      </c>
+      <c r="X71">
+        <v>-443.9</v>
+      </c>
+      <c r="Y71">
+        <v>16</v>
+      </c>
+      <c r="Z71">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AA71">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>179.4</v>
+      </c>
+      <c r="D72">
+        <v>2314.6</v>
+      </c>
+      <c r="E72">
+        <v>787.6</v>
+      </c>
+      <c r="F72">
+        <v>1291</v>
+      </c>
+      <c r="G72">
+        <v>3041.6</v>
+      </c>
+      <c r="H72">
+        <v>11714.6</v>
+      </c>
+      <c r="I72">
+        <v>670.5</v>
+      </c>
+      <c r="J72">
+        <v>3013.2</v>
+      </c>
+      <c r="K72">
+        <v>254.5</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-1.2</v>
+      </c>
+      <c r="N72">
+        <v>1727.1</v>
+      </c>
+      <c r="O72">
+        <v>6148.5</v>
+      </c>
+      <c r="P72">
+        <v>3267.7</v>
+      </c>
+      <c r="Q72">
+        <v>-59.4</v>
+      </c>
+      <c r="R72">
+        <v>43226</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5566.1</v>
+      </c>
+      <c r="U72">
+        <v>434.5</v>
+      </c>
+      <c r="V72">
+        <v>-125.7</v>
+      </c>
+      <c r="W72">
+        <v>-5.9</v>
+      </c>
+      <c r="X72">
+        <v>166</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>179.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>165.2</v>
+      </c>
+      <c r="D73">
+        <v>2333.6999999999998</v>
+      </c>
+      <c r="E73">
+        <v>710.4</v>
+      </c>
+      <c r="F73">
+        <v>1297</v>
+      </c>
+      <c r="G73">
+        <v>3166</v>
+      </c>
+      <c r="H73">
+        <v>11697.7</v>
+      </c>
+      <c r="I73">
+        <v>922.6</v>
+      </c>
+      <c r="J73">
+        <v>2893.5</v>
+      </c>
+      <c r="K73">
+        <v>85.4</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1835.7</v>
+      </c>
+      <c r="O73">
+        <v>6131.3</v>
+      </c>
+      <c r="P73">
+        <v>2979</v>
+      </c>
+      <c r="Q73">
+        <v>-3.4</v>
+      </c>
+      <c r="R73">
+        <v>43317</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5566.4</v>
+      </c>
+      <c r="U73">
+        <v>431.1</v>
+      </c>
+      <c r="V73">
+        <v>436.6</v>
+      </c>
+      <c r="W73">
+        <v>-2.9</v>
+      </c>
+      <c r="X73">
+        <v>-338.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>243.1</v>
+      </c>
+      <c r="D74">
+        <v>2524.5</v>
+      </c>
+      <c r="E74">
+        <v>937</v>
+      </c>
+      <c r="F74">
+        <v>1364.8</v>
+      </c>
+      <c r="G74">
+        <v>3307.8</v>
+      </c>
+      <c r="H74">
+        <v>11830.9</v>
+      </c>
+      <c r="I74">
+        <v>752.5</v>
+      </c>
+      <c r="J74">
+        <v>2878.3</v>
+      </c>
+      <c r="K74">
+        <v>276.7</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1898.6</v>
+      </c>
+      <c r="O74">
+        <v>6149.2</v>
+      </c>
+      <c r="P74">
+        <v>3155.1</v>
+      </c>
+      <c r="Q74">
+        <v>-32.6</v>
+      </c>
+      <c r="R74">
+        <v>43408</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5681.7</v>
+      </c>
+      <c r="U74">
+        <v>398.5</v>
+      </c>
+      <c r="V74">
+        <v>-5.8</v>
+      </c>
+      <c r="W74">
+        <v>-2.8</v>
+      </c>
+      <c r="X74">
+        <v>78.7</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>243.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D75">
+        <v>2484</v>
+      </c>
+      <c r="E75">
+        <v>777.8</v>
+      </c>
+      <c r="F75">
+        <v>1357.7</v>
+      </c>
+      <c r="G75">
+        <v>3238.6</v>
+      </c>
+      <c r="H75">
+        <v>11863.7</v>
+      </c>
+      <c r="I75">
+        <v>924.2</v>
+      </c>
+      <c r="J75">
+        <v>2821</v>
+      </c>
+      <c r="K75">
+        <v>12.8</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1893.9</v>
+      </c>
+      <c r="O75">
+        <v>6035.7</v>
+      </c>
+      <c r="P75">
+        <v>2835</v>
+      </c>
+      <c r="Q75">
+        <v>53.5</v>
+      </c>
+      <c r="R75">
+        <v>43499</v>
+      </c>
+      <c r="S75">
+        <v>20500</v>
+      </c>
+      <c r="T75">
+        <v>5828</v>
+      </c>
+      <c r="U75">
+        <v>452</v>
+      </c>
+      <c r="V75">
+        <v>547.4</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-385</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <v>2356.3000000000002</v>
+      </c>
+      <c r="E76">
+        <v>851.6</v>
+      </c>
+      <c r="F76">
+        <v>1295.9000000000001</v>
+      </c>
+      <c r="G76">
+        <v>3253.4</v>
+      </c>
+      <c r="H76">
+        <v>13355</v>
+      </c>
+      <c r="I76">
+        <v>696.2</v>
+      </c>
+      <c r="J76">
+        <v>2761.3</v>
+      </c>
+      <c r="K76">
+        <v>299.7</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-1650.8</v>
+      </c>
+      <c r="N76">
+        <v>2206.6</v>
+      </c>
+      <c r="O76">
+        <v>7593.7</v>
+      </c>
+      <c r="P76">
+        <v>4943.1000000000004</v>
+      </c>
+      <c r="Q76">
+        <v>42.3</v>
+      </c>
+      <c r="R76">
+        <v>43590</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5761.3</v>
+      </c>
+      <c r="U76">
+        <v>494.3</v>
+      </c>
+      <c r="V76">
+        <v>-73.2</v>
+      </c>
+      <c r="W76">
+        <v>-5.7</v>
+      </c>
+      <c r="X76">
+        <v>198.3</v>
+      </c>
+      <c r="Y76">
+        <v>1510.4</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>193.5</v>
+      </c>
+      <c r="D77">
+        <v>2364.1999999999998</v>
+      </c>
+      <c r="E77">
+        <v>781</v>
+      </c>
+      <c r="F77">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="G77">
+        <v>3398.6</v>
+      </c>
+      <c r="H77">
+        <v>13820.9</v>
+      </c>
+      <c r="I77">
+        <v>930.2</v>
+      </c>
+      <c r="J77">
+        <v>2745.9</v>
+      </c>
+      <c r="K77">
+        <v>183.2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2427.6999999999998</v>
+      </c>
+      <c r="O77">
+        <v>7949.8</v>
+      </c>
+      <c r="P77">
+        <v>4870.3999999999996</v>
+      </c>
+      <c r="Q77">
+        <v>-60.8</v>
+      </c>
+      <c r="R77">
+        <v>43681</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5871.1</v>
+      </c>
+      <c r="U77">
+        <v>433.5</v>
+      </c>
+      <c r="V77">
+        <v>391.1</v>
+      </c>
+      <c r="W77">
+        <v>-2.8</v>
+      </c>
+      <c r="X77">
+        <v>-242.1</v>
+      </c>
+      <c r="Y77">
+        <v>1546.1</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>209.2</v>
+      </c>
+      <c r="D78">
+        <v>2587.6999999999998</v>
+      </c>
+      <c r="E78">
+        <v>972.7</v>
+      </c>
+      <c r="F78">
+        <v>1406.2</v>
+      </c>
+      <c r="G78">
+        <v>3582.1</v>
+      </c>
+      <c r="H78">
+        <v>14019.2</v>
+      </c>
+      <c r="I78">
+        <v>780.5</v>
+      </c>
+      <c r="J78">
+        <v>2740.2</v>
+      </c>
+      <c r="K78">
+        <v>387.5</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2552.6999999999998</v>
+      </c>
+      <c r="O78">
+        <v>8035</v>
+      </c>
+      <c r="P78">
+        <v>5054.5</v>
+      </c>
+      <c r="Q78">
+        <v>121.7</v>
+      </c>
+      <c r="R78">
+        <v>43772</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>5984.2</v>
+      </c>
+      <c r="U78">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="V78">
+        <v>113.9</v>
+      </c>
+      <c r="W78">
+        <v>-2.8</v>
+      </c>
+      <c r="X78">
+        <v>94.8</v>
+      </c>
+      <c r="Y78">
+        <v>1528.6</v>
+      </c>
+      <c r="Z78">
+        <v>-2.5</v>
+      </c>
+      <c r="AA78">
+        <v>209.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="D79">
+        <v>2600.8000000000002</v>
+      </c>
+      <c r="E79">
+        <v>741.4</v>
+      </c>
+      <c r="F79">
+        <v>1397.9</v>
+      </c>
+      <c r="G79">
+        <v>3394.2</v>
+      </c>
+      <c r="H79">
+        <v>13631</v>
+      </c>
+      <c r="I79">
+        <v>882.8</v>
+      </c>
+      <c r="J79">
+        <v>2694.3</v>
+      </c>
+      <c r="K79">
+        <v>49.6</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2361.1</v>
+      </c>
+      <c r="O79">
+        <v>7821.5</v>
+      </c>
+      <c r="P79">
+        <v>4673.2</v>
+      </c>
+      <c r="Q79">
+        <v>-51.8</v>
+      </c>
+      <c r="R79">
+        <v>43863</v>
+      </c>
+      <c r="S79">
+        <v>21500</v>
+      </c>
+      <c r="T79">
+        <v>5809.5</v>
+      </c>
+      <c r="U79">
+        <v>503.4</v>
+      </c>
+      <c r="V79">
+        <v>588.5</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-502.6</v>
+      </c>
+      <c r="Y79">
+        <v>1541.9</v>
+      </c>
+      <c r="Z79">
+        <v>-25.2</v>
+      </c>
+      <c r="AA79">
+        <v>-67.400000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-1096.8</v>
+      </c>
+      <c r="D80">
+        <v>1344</v>
+      </c>
+      <c r="E80">
+        <v>545.6</v>
+      </c>
+      <c r="F80">
+        <v>665.9</v>
+      </c>
+      <c r="G80">
+        <v>3188.3</v>
+      </c>
+      <c r="H80">
+        <v>12294.2</v>
+      </c>
+      <c r="I80">
+        <v>783.9</v>
+      </c>
+      <c r="J80">
+        <v>2856.9</v>
+      </c>
+      <c r="K80">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>-4.7</v>
+      </c>
+      <c r="N80">
+        <v>2321.6</v>
+      </c>
+      <c r="O80">
+        <v>7783.2</v>
+      </c>
+      <c r="P80">
+        <v>5110.6000000000004</v>
+      </c>
+      <c r="Q80">
+        <v>297.3</v>
+      </c>
+      <c r="R80">
+        <v>43954</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4511</v>
+      </c>
+      <c r="U80">
+        <v>800.7</v>
+      </c>
+      <c r="V80">
+        <v>-142.80000000000001</v>
+      </c>
+      <c r="W80">
+        <v>-2.7</v>
+      </c>
+      <c r="X80">
+        <v>336.4</v>
+      </c>
+      <c r="Y80">
+        <v>1508.2</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-1096.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-51.4</v>
+      </c>
+      <c r="D81">
+        <v>1580.7</v>
+      </c>
+      <c r="E81">
+        <v>568.79999999999995</v>
+      </c>
+      <c r="F81">
+        <v>883.3</v>
+      </c>
+      <c r="G81">
+        <v>3846.8</v>
+      </c>
+      <c r="H81">
+        <v>13252.5</v>
+      </c>
+      <c r="I81">
+        <v>1048.2</v>
+      </c>
+      <c r="J81">
+        <v>3501.2</v>
+      </c>
+      <c r="K81">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2526.1</v>
+      </c>
+      <c r="O81">
+        <v>8671.7000000000007</v>
+      </c>
+      <c r="P81">
+        <v>5566.7</v>
+      </c>
+      <c r="Q81">
+        <v>593.6</v>
+      </c>
+      <c r="R81">
+        <v>44045</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4580.8</v>
+      </c>
+      <c r="U81">
+        <v>1394.3</v>
+      </c>
+      <c r="V81">
+        <v>390.8</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>218.7</v>
+      </c>
+      <c r="Y81">
+        <v>1546.1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-51.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>69.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2118.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>799.2</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1101.3</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3967.9</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>13257.2</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1134.4000000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3466.1</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>21.1</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2567.9</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8584</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5409.4</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>65.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44136</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>4673.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1460</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>179</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-53.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1469.6</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-1.6</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>69.8</v>
       </c>
     </row>
